--- a/data/trans_orig/hab_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/hab_R-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>173231</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>151801</v>
+        <v>151553</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>195108</v>
+        <v>194216</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3656381901028865</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3204057529989634</v>
+        <v>0.3198836614731193</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4118154518305208</v>
+        <v>0.4099311182719927</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>121</v>
@@ -765,19 +765,19 @@
         <v>127560</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>110286</v>
+        <v>110071</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>145371</v>
+        <v>144546</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4159374335824264</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3596112533280178</v>
+        <v>0.3589122056752914</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4740162560734569</v>
+        <v>0.4713259536464846</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>296</v>
@@ -786,19 +786,19 @@
         <v>300791</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>273981</v>
+        <v>273205</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>326857</v>
+        <v>326787</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3854032698466255</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3510517947662387</v>
+        <v>0.3500580215860399</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4188022793410198</v>
+        <v>0.4187128078931743</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>114173</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>94850</v>
+        <v>95514</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>134086</v>
+        <v>132434</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2409857306823891</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2002008867139922</v>
+        <v>0.2016013289737162</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2830152666559199</v>
+        <v>0.2795285615219675</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>60</v>
@@ -836,19 +836,19 @@
         <v>58255</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>45386</v>
+        <v>45796</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>72878</v>
+        <v>73541</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1899549620383683</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1479905742011908</v>
+        <v>0.1493292161497177</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2376354526735105</v>
+        <v>0.2397973777577599</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>164</v>
@@ -857,19 +857,19 @@
         <v>172429</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>150406</v>
+        <v>149671</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>200599</v>
+        <v>194324</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2209331982413467</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1927151481726719</v>
+        <v>0.1917738632535835</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2570278687611694</v>
+        <v>0.2489870324618738</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>118012</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>99176</v>
+        <v>99774</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>138169</v>
+        <v>139167</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2490888449123729</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.209330049669957</v>
+        <v>0.210592416801525</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2916336552013971</v>
+        <v>0.293740927669264</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>80</v>
@@ -907,19 +907,19 @@
         <v>83380</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>69930</v>
+        <v>67038</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>100085</v>
+        <v>97925</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2718784422423053</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2280212175331127</v>
+        <v>0.218594211417674</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3263506777014263</v>
+        <v>0.3193056511655147</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>187</v>
@@ -928,19 +928,19 @@
         <v>201392</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>177217</v>
+        <v>179227</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>226321</v>
+        <v>229493</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2580440135668883</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2270679507676248</v>
+        <v>0.2296441193439957</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2899856942901046</v>
+        <v>0.2940501422356362</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>68360</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>54406</v>
+        <v>53776</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>84175</v>
+        <v>84130</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1442872343023515</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1148343668490996</v>
+        <v>0.1135053762886033</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1776676254882337</v>
+        <v>0.1775728347423206</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>37</v>
@@ -978,19 +978,19 @@
         <v>37485</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>26523</v>
+        <v>26599</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>49611</v>
+        <v>48146</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1222291621368999</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08648558677137821</v>
+        <v>0.08673294164412212</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1617687309047078</v>
+        <v>0.1569901527816572</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>106</v>
@@ -999,19 +999,19 @@
         <v>105845</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>89176</v>
+        <v>89642</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>126730</v>
+        <v>126177</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1356195183451395</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1142606566015162</v>
+        <v>0.114858531928256</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1623788404783044</v>
+        <v>0.1616708692291523</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>130949</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>112687</v>
+        <v>112809</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>150532</v>
+        <v>150173</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3568727672412141</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3071036400481285</v>
+        <v>0.3074367122866787</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4102439469778803</v>
+        <v>0.4092643378508174</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>140</v>
@@ -1124,19 +1124,19 @@
         <v>145228</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>128112</v>
+        <v>125013</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>165113</v>
+        <v>165155</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3905395289849436</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3445123002568766</v>
+        <v>0.336177194046341</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4440129739758109</v>
+        <v>0.4441251427210723</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>277</v>
@@ -1145,19 +1145,19 @@
         <v>276177</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>249104</v>
+        <v>251540</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>303578</v>
+        <v>303762</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3738184936664537</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3371744758142819</v>
+        <v>0.3404720946089813</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4109076933324106</v>
+        <v>0.4111558255198356</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>90612</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>74208</v>
+        <v>73350</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>108307</v>
+        <v>108973</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2469445793804675</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2022375088601863</v>
+        <v>0.199900479963814</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2951688543756166</v>
+        <v>0.2969819432206456</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>102</v>
@@ -1195,19 +1195,19 @@
         <v>98420</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>83195</v>
+        <v>82994</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>115723</v>
+        <v>116016</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2646657632299924</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2237246696296582</v>
+        <v>0.2231829826493763</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3111973432978253</v>
+        <v>0.3119838703755851</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>182</v>
@@ -1216,19 +1216,19 @@
         <v>189032</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>166824</v>
+        <v>164464</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>214028</v>
+        <v>212909</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2558643066690998</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2258047518247523</v>
+        <v>0.222610348151232</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2896976014219207</v>
+        <v>0.2881829521267861</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>91264</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>73738</v>
+        <v>74737</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>108844</v>
+        <v>109598</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2487206374517222</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2009566447142001</v>
+        <v>0.2036797237897156</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2966322037847563</v>
+        <v>0.2986868177563061</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>86</v>
@@ -1266,19 +1266,19 @@
         <v>93446</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>76718</v>
+        <v>77715</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>110236</v>
+        <v>111024</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2512890166762618</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2063061907402986</v>
+        <v>0.2089863512534537</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2964406028947933</v>
+        <v>0.2985594970090444</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>168</v>
@@ -1287,19 +1287,19 @@
         <v>184710</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>161355</v>
+        <v>162416</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>211591</v>
+        <v>212490</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2500133977126173</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2184022192807859</v>
+        <v>0.2198384108818149</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2863985040297361</v>
+        <v>0.2876156682683894</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>54109</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>41585</v>
+        <v>41803</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>69474</v>
+        <v>69739</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1474620159265962</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1133317450794906</v>
+        <v>0.1139238357143762</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1893366016709155</v>
+        <v>0.1900591544445984</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>35</v>
@@ -1337,19 +1337,19 @@
         <v>34771</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>24451</v>
+        <v>24798</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>47120</v>
+        <v>45651</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.09350569110880221</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.06575287469577651</v>
+        <v>0.06668645862770506</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1267136112573576</v>
+        <v>0.1227618316320065</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>86</v>
@@ -1358,19 +1358,19 @@
         <v>88880</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>73415</v>
+        <v>72787</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>107268</v>
+        <v>108333</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1203038019518293</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.09937075099678731</v>
+        <v>0.09852024485360869</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1451922341798549</v>
+        <v>0.146633938596002</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>167972</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>147254</v>
+        <v>147541</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>190683</v>
+        <v>190043</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3096899425157297</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2714916949604213</v>
+        <v>0.2720214041504703</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3515612187147555</v>
+        <v>0.3503805051512005</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>46</v>
@@ -1483,19 +1483,19 @@
         <v>47486</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>36762</v>
+        <v>36941</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>59933</v>
+        <v>60231</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2830236884788959</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2191048429175077</v>
+        <v>0.2201743128581536</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3572069445965293</v>
+        <v>0.3589833322424099</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>223</v>
@@ -1504,19 +1504,19 @@
         <v>215459</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>191844</v>
+        <v>191519</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>239747</v>
+        <v>239932</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3033898894877656</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2701376509648744</v>
+        <v>0.2696797565521513</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3375911127007924</v>
+        <v>0.3378510600076189</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>122231</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>101360</v>
+        <v>101193</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>141345</v>
+        <v>142299</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2253562830806972</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1868763444973668</v>
+        <v>0.1865696553428067</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2605970764525843</v>
+        <v>0.2623559034054805</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>21</v>
@@ -1554,19 +1554,19 @@
         <v>19469</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>12082</v>
+        <v>12382</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>28851</v>
+        <v>28515</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1160401933344871</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.07201073933586262</v>
+        <v>0.07379688892078007</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1719527095779494</v>
+        <v>0.1699520427483387</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>139</v>
@@ -1575,19 +1575,19 @@
         <v>141700</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>120747</v>
+        <v>122149</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>162439</v>
+        <v>162496</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1995297398677094</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1700248319865087</v>
+        <v>0.1719995939709006</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2287323460694748</v>
+        <v>0.2288122479606559</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>147824</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>128776</v>
+        <v>127079</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>169690</v>
+        <v>169546</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2725429354669905</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.237423669703003</v>
+        <v>0.2342941673208255</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3128562327924991</v>
+        <v>0.312591217580606</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>60</v>
@@ -1625,19 +1625,19 @@
         <v>63252</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>50858</v>
+        <v>51793</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>76054</v>
+        <v>75916</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3769873398371644</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.303119663777655</v>
+        <v>0.3086919830445474</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4532888300821314</v>
+        <v>0.452469417583522</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>197</v>
@@ -1646,19 +1646,19 @@
         <v>211076</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>187233</v>
+        <v>187862</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>235140</v>
+        <v>237132</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2972185155127412</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.263644815260979</v>
+        <v>0.2645300933687775</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3311026604124866</v>
+        <v>0.3339080997694431</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>104362</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>88042</v>
+        <v>87789</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>124683</v>
+        <v>127241</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1924108389365826</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1623230114993987</v>
+        <v>0.1618553525006984</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2298782228451687</v>
+        <v>0.2345931646071991</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>37</v>
@@ -1696,19 +1696,19 @@
         <v>37575</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>27010</v>
+        <v>27725</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>48372</v>
+        <v>49203</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2239487783494525</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1609818141787519</v>
+        <v>0.1652414590541467</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2883017766085627</v>
+        <v>0.2932557729084792</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>137</v>
@@ -1717,19 +1717,19 @@
         <v>141936</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>121555</v>
+        <v>121265</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>163000</v>
+        <v>164876</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1998618551317838</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1711634490120813</v>
+        <v>0.1707544937320983</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2295224182446249</v>
+        <v>0.2321641791333049</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>276792</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>247425</v>
+        <v>249296</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>304211</v>
+        <v>307230</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2235195802334954</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1998046886753015</v>
+        <v>0.2013153561289948</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2456614227570414</v>
+        <v>0.2480997984822818</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>193</v>
@@ -1842,19 +1842,19 @@
         <v>201530</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>177874</v>
+        <v>178495</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>224362</v>
+        <v>227335</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2821418570228841</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2490244471823421</v>
+        <v>0.2498926232493331</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.314107462370621</v>
+        <v>0.3182696129483631</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>488</v>
@@ -1863,19 +1863,19 @@
         <v>478322</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>441136</v>
+        <v>439039</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>515980</v>
+        <v>512948</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.244964120445871</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2259199420180273</v>
+        <v>0.2248463061438264</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2642499333753596</v>
+        <v>0.262697078979941</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>241743</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>215577</v>
+        <v>218493</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>270381</v>
+        <v>274885</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1952166760797032</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1740860386182909</v>
+        <v>0.1764414363072832</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2183428737066645</v>
+        <v>0.2219793474323252</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>132</v>
@@ -1913,19 +1913,19 @@
         <v>131293</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>111514</v>
+        <v>112615</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>152707</v>
+        <v>152853</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1838109149759025</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.156120400224442</v>
+        <v>0.1576607739349655</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2137898429724991</v>
+        <v>0.2139942277642521</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>367</v>
@@ -1934,19 +1934,19 @@
         <v>373037</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>339236</v>
+        <v>343603</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>411374</v>
+        <v>408599</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1910443491753432</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1737336709895484</v>
+        <v>0.1759700793990246</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2106781354353207</v>
+        <v>0.2092568854123694</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>414240</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>383529</v>
+        <v>379823</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>446067</v>
+        <v>445278</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3345137773143819</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3097135503316324</v>
+        <v>0.3067206625482053</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.360215417506197</v>
+        <v>0.359577989813693</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>197</v>
@@ -1984,19 +1984,19 @@
         <v>213322</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>188435</v>
+        <v>188127</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>239106</v>
+        <v>239939</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2986507060959941</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2638091183561956</v>
+        <v>0.2633779851680933</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.334748263453659</v>
+        <v>0.3359142393899857</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>589</v>
@@ -2005,19 +2005,19 @@
         <v>627562</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>587291</v>
+        <v>589785</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>669509</v>
+        <v>671434</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3213947530286991</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3007705374342271</v>
+        <v>0.302047801015335</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.342877385973764</v>
+        <v>0.3438629023880952</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>305559</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>274979</v>
+        <v>275928</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>335344</v>
+        <v>335175</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2467499663724195</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2220552256618104</v>
+        <v>0.222821969624236</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2708025818563263</v>
+        <v>0.2706661959512476</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>172</v>
@@ -2055,19 +2055,19 @@
         <v>168140</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>145104</v>
+        <v>145860</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>192107</v>
+        <v>191352</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2353965219052194</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2031458524713732</v>
+        <v>0.2042038600155402</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2689495846723571</v>
+        <v>0.2678933458822289</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>474</v>
@@ -2076,19 +2076,19 @@
         <v>473699</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>436804</v>
+        <v>432878</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>511206</v>
+        <v>512113</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2425967773500867</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2237016493589532</v>
+        <v>0.2216908392300781</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2618049375447642</v>
+        <v>0.2622695947616895</v>
       </c>
     </row>
     <row r="23">
@@ -2180,19 +2180,19 @@
         <v>88371</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>73736</v>
+        <v>73480</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>106353</v>
+        <v>104203</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2520896560301647</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2103409224645935</v>
+        <v>0.209610343332933</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3033843751485194</v>
+        <v>0.2972514995455058</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>142</v>
@@ -2201,19 +2201,19 @@
         <v>154252</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>133804</v>
+        <v>133441</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>174052</v>
+        <v>176547</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2712107495156326</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2352593496693566</v>
+        <v>0.2346201439654365</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3060252361764305</v>
+        <v>0.3104111733063783</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>239</v>
@@ -2222,19 +2222,19 @@
         <v>242623</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>217634</v>
+        <v>217545</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>268679</v>
+        <v>269167</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2639193884389392</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2367367616763676</v>
+        <v>0.2366403417499211</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2922621934303699</v>
+        <v>0.2927934602546097</v>
       </c>
     </row>
     <row r="25">
@@ -2251,19 +2251,19 @@
         <v>69274</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>54459</v>
+        <v>54941</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>86841</v>
+        <v>85683</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1976122844124441</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1553514823105045</v>
+        <v>0.1567246308201371</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.247724459969793</v>
+        <v>0.2444213734531041</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>112</v>
@@ -2272,19 +2272,19 @@
         <v>113448</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>94948</v>
+        <v>95501</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>134157</v>
+        <v>132929</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1994678809113122</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1669403015433234</v>
+        <v>0.1679139612773353</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2358803477546284</v>
+        <v>0.2337208135366444</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>174</v>
@@ -2293,19 +2293,19 @@
         <v>182722</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>159534</v>
+        <v>156500</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>211119</v>
+        <v>207509</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1987602945959072</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1735369968646058</v>
+        <v>0.1702365804776176</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2296498048530256</v>
+        <v>0.2257233056067653</v>
       </c>
     </row>
     <row r="26">
@@ -2322,19 +2322,19 @@
         <v>102847</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>86929</v>
+        <v>87607</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>119219</v>
+        <v>122596</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2933829265591757</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2479750156320726</v>
+        <v>0.2499081757466237</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3400876724922173</v>
+        <v>0.3497203168654855</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>139</v>
@@ -2343,19 +2343,19 @@
         <v>153218</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>131807</v>
+        <v>133959</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>175808</v>
+        <v>178328</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2693934303590294</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2317479350541629</v>
+        <v>0.2355322228377322</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3091112476880462</v>
+        <v>0.3135434201583861</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>233</v>
@@ -2364,19 +2364,19 @@
         <v>256065</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>229960</v>
+        <v>227612</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>285819</v>
+        <v>286851</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2785412376733008</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2501450735655233</v>
+        <v>0.2475909612092572</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.310907273074329</v>
+        <v>0.3120295815527965</v>
       </c>
     </row>
     <row r="27">
@@ -2393,19 +2393,19 @@
         <v>90063</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>74065</v>
+        <v>73159</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>105678</v>
+        <v>106421</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2569151329982154</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.211278608829739</v>
+        <v>0.2086953043333463</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3014601292144282</v>
+        <v>0.3035792551575175</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>146</v>
@@ -2414,19 +2414,19 @@
         <v>147835</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>125837</v>
+        <v>127232</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>168858</v>
+        <v>171009</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2599279392140259</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2212504890136165</v>
+        <v>0.2237036672863216</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2968913212992182</v>
+        <v>0.3006732383019216</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>233</v>
@@ -2435,19 +2435,19 @@
         <v>237897</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>211502</v>
+        <v>210257</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>263810</v>
+        <v>265252</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2587790792918528</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2300669245857192</v>
+        <v>0.2287123525160938</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2869665066844959</v>
+        <v>0.2885343697410541</v>
       </c>
     </row>
     <row r="28">
@@ -2539,19 +2539,19 @@
         <v>101640</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>85550</v>
+        <v>85235</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>118548</v>
+        <v>117178</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3408451499916254</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2868859181342072</v>
+        <v>0.2858290403739819</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3975438301973409</v>
+        <v>0.3929500605957973</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>354</v>
@@ -2560,19 +2560,19 @@
         <v>361483</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>331718</v>
+        <v>328105</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>399072</v>
+        <v>394000</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2894739228371534</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2656376990178779</v>
+        <v>0.2627446177045601</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3195743500423522</v>
+        <v>0.3155127192957308</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>463</v>
@@ -2581,19 +2581,19 @@
         <v>463124</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>430333</v>
+        <v>430508</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>500755</v>
+        <v>499524</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2993765217415224</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2781800404322203</v>
+        <v>0.2782932135918862</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3237028237366693</v>
+        <v>0.3229068168644104</v>
       </c>
     </row>
     <row r="30">
@@ -2610,19 +2610,19 @@
         <v>39560</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>29769</v>
+        <v>29206</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>52131</v>
+        <v>52553</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1326615676011546</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.09983020444699255</v>
+        <v>0.09794048093646202</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1748167630416528</v>
+        <v>0.176234341015322</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>269</v>
@@ -2631,19 +2631,19 @@
         <v>262955</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>234883</v>
+        <v>233858</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>292384</v>
+        <v>290012</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2105730495475107</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1880927896246486</v>
+        <v>0.1872718136891273</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2341396165601208</v>
+        <v>0.2322397216475177</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>310</v>
@@ -2652,19 +2652,19 @@
         <v>302515</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>272558</v>
+        <v>272139</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>334542</v>
+        <v>332690</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1955544058729145</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1761891240492352</v>
+        <v>0.1759183272470115</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2162577082091877</v>
+        <v>0.2150602975656379</v>
       </c>
     </row>
     <row r="31">
@@ -2681,19 +2681,19 @@
         <v>86498</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>72692</v>
+        <v>71495</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>102446</v>
+        <v>102496</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2900663494494308</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2437672070318395</v>
+        <v>0.2397547078793865</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3435465231810376</v>
+        <v>0.3437159482245444</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>346</v>
@@ -2702,19 +2702,19 @@
         <v>361776</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>330249</v>
+        <v>333312</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>392727</v>
+        <v>394285</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2897084768763833</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2644615402072636</v>
+        <v>0.266913981483551</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3144937583024082</v>
+        <v>0.3157410635231337</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>429</v>
@@ -2723,19 +2723,19 @@
         <v>448274</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>413920</v>
+        <v>411082</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>484687</v>
+        <v>485495</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2897774623522238</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2675697392284204</v>
+        <v>0.265735220042485</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3133157494158662</v>
+        <v>0.3138381931480989</v>
       </c>
     </row>
     <row r="32">
@@ -2752,19 +2752,19 @@
         <v>70503</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>58716</v>
+        <v>56879</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>85199</v>
+        <v>85206</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2364269329577893</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1969011846531292</v>
+        <v>0.1907409415789664</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2857096695577289</v>
+        <v>0.2857343038835987</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>269</v>
@@ -2773,19 +2773,19 @@
         <v>262545</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>235171</v>
+        <v>235341</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>290211</v>
+        <v>291222</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2102445507389526</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1883238115692834</v>
+        <v>0.1884600839533704</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2323995507717843</v>
+        <v>0.2332090688018738</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>342</v>
@@ -2794,19 +2794,19 @@
         <v>333048</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>300964</v>
+        <v>302362</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>366008</v>
+        <v>364636</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2152916100333392</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1945518656350463</v>
+        <v>0.1954558964420905</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2365983887538313</v>
+        <v>0.2357115700591919</v>
       </c>
     </row>
     <row r="33">
@@ -2898,19 +2898,19 @@
         <v>938956</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>887023</v>
+        <v>888485</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>988998</v>
+        <v>990002</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2871257006667664</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2712450541808062</v>
+        <v>0.2716922779326997</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3024284318372018</v>
+        <v>0.3027351963076634</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>996</v>
@@ -2919,19 +2919,19 @@
         <v>1037539</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>987351</v>
+        <v>979536</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>1091679</v>
+        <v>1089664</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.3071346094329483</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2922779240973253</v>
+        <v>0.2899645589722162</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3231614324046128</v>
+        <v>0.3225647560098956</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1986</v>
@@ -2940,19 +2940,19 @@
         <v>1976494</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1903719</v>
+        <v>1905439</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>2046901</v>
+        <v>2047097</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2972925753258897</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2863461638432088</v>
+        <v>0.2866049104763817</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3078827387817286</v>
+        <v>0.3079121745268841</v>
       </c>
     </row>
     <row r="35">
@@ -2969,19 +2969,19 @@
         <v>677594</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>632097</v>
+        <v>628747</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>724908</v>
+        <v>723617</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2072032145193352</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1932906141705097</v>
+        <v>0.1922661260524107</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2216715870974448</v>
+        <v>0.2212768010114318</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>696</v>
@@ -2990,19 +2990,19 @@
         <v>683841</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>640101</v>
+        <v>640028</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>728713</v>
+        <v>738619</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2024322066269181</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1894840916114898</v>
+        <v>0.1894625886658624</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2157151943174127</v>
+        <v>0.2186475734574872</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>1336</v>
@@ -3011,19 +3011,19 @@
         <v>1361435</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>1302302</v>
+        <v>1296825</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>1432659</v>
+        <v>1426177</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2047789824031952</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1958844920221813</v>
+        <v>0.1950607962210212</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2154920471324014</v>
+        <v>0.2145170942490199</v>
       </c>
     </row>
     <row r="36">
@@ -3040,19 +3040,19 @@
         <v>960686</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>909330</v>
+        <v>907390</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1010808</v>
+        <v>1019716</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2937705938893573</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2780665564057422</v>
+        <v>0.2774731162005157</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3090975753536175</v>
+        <v>0.3118216128772928</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>908</v>
@@ -3061,19 +3061,19 @@
         <v>968393</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>919427</v>
+        <v>913520</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>1023979</v>
+        <v>1024447</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2866659413719752</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2721710096526619</v>
+        <v>0.2704223467561792</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3031207376720325</v>
+        <v>0.3032591531775076</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1803</v>
@@ -3082,19 +3082,19 @@
         <v>1929079</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1860916</v>
+        <v>1860802</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>2004701</v>
+        <v>1997717</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2901605963385198</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2799079809923485</v>
+        <v>0.2798907970224179</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3015352118747554</v>
+        <v>0.3004847081674755</v>
       </c>
     </row>
     <row r="37">
@@ -3111,19 +3111,19 @@
         <v>692955</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>646046</v>
+        <v>645284</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>736246</v>
+        <v>741945</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2119004909245411</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1975559978269933</v>
+        <v>0.1973230104699962</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2251385338964079</v>
+        <v>0.2268812873818837</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>696</v>
@@ -3132,19 +3132,19 @@
         <v>688351</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>644269</v>
+        <v>643530</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>736657</v>
+        <v>738699</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2037672425681585</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1907181298712763</v>
+        <v>0.1904993564068748</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2180668061133196</v>
+        <v>0.2186714186264052</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1378</v>
@@ -3153,19 +3153,19 @@
         <v>1381306</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1316039</v>
+        <v>1313933</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1448028</v>
+        <v>1445125</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2077678459323953</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1979507947765887</v>
+        <v>0.1976339495563811</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2178037204159309</v>
+        <v>0.2173670860923773</v>
       </c>
     </row>
     <row r="38">
@@ -3499,19 +3499,19 @@
         <v>154736</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>134696</v>
+        <v>132511</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>176768</v>
+        <v>173622</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3539161166639726</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.308079230891884</v>
+        <v>0.3030823489902192</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.404308342504992</v>
+        <v>0.3971128085716381</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>111</v>
@@ -3520,19 +3520,19 @@
         <v>120143</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>103393</v>
+        <v>100146</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>139529</v>
+        <v>136720</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3820693089475328</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3288003502730271</v>
+        <v>0.3184767907547926</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4437189941521779</v>
+        <v>0.4347841587694556</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>262</v>
@@ -3541,19 +3541,19 @@
         <v>274879</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>248680</v>
+        <v>248388</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>306076</v>
+        <v>302739</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3656938244025142</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3308390449129189</v>
+        <v>0.330450925682091</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4071970344943249</v>
+        <v>0.4027584084308579</v>
       </c>
     </row>
     <row r="5">
@@ -3570,19 +3570,19 @@
         <v>99179</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>82572</v>
+        <v>81527</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>122121</v>
+        <v>120226</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2268457555868722</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1888618587019314</v>
+        <v>0.1864710408596719</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2793190810942358</v>
+        <v>0.2749829660917736</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>60</v>
@@ -3591,19 +3591,19 @@
         <v>67247</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>52591</v>
+        <v>52874</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>84949</v>
+        <v>83971</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2138531833622118</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1672445618490471</v>
+        <v>0.1681441255439327</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2701486654877395</v>
+        <v>0.2670389220449342</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>145</v>
@@ -3612,19 +3612,19 @@
         <v>166426</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>143033</v>
+        <v>142484</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>192356</v>
+        <v>191657</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2214103961827701</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1902877319413655</v>
+        <v>0.1895583443030096</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2559061176619009</v>
+        <v>0.2549768264210716</v>
       </c>
     </row>
     <row r="6">
@@ -3641,19 +3641,19 @@
         <v>120498</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>99992</v>
+        <v>101662</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>140254</v>
+        <v>140093</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2756053243604879</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2287039492626009</v>
+        <v>0.2325246504086176</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3207930549368739</v>
+        <v>0.3204235038306391</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>65</v>
@@ -3662,19 +3662,19 @@
         <v>75508</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>60419</v>
+        <v>59604</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>93248</v>
+        <v>93069</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.240123122697056</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1921402753859199</v>
+        <v>0.1895474327363096</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2965384749855592</v>
+        <v>0.2959692611172773</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>172</v>
@@ -3683,19 +3683,19 @@
         <v>196005</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>169027</v>
+        <v>172427</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>219965</v>
+        <v>223107</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.260761572472503</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.224870526843524</v>
+        <v>0.2293936570245872</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2926370214090308</v>
+        <v>0.2968176374259763</v>
       </c>
     </row>
     <row r="7">
@@ -3712,19 +3712,19 @@
         <v>62798</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>48709</v>
+        <v>50520</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>77342</v>
+        <v>79438</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1436328033886673</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1114089320464779</v>
+        <v>0.1155505971195258</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.176899586913029</v>
+        <v>0.1816918892963948</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>47</v>
@@ -3733,19 +3733,19 @@
         <v>51556</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>39152</v>
+        <v>39124</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>66444</v>
+        <v>67925</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1639543849931995</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1245069537970743</v>
+        <v>0.1244189273135326</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2113008400343614</v>
+        <v>0.2160089612773035</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>108</v>
@@ -3754,19 +3754,19 @@
         <v>114354</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>95365</v>
+        <v>95446</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>135180</v>
+        <v>135881</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1521342069422127</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.126871089056452</v>
+        <v>0.1269790912246689</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1798407654683819</v>
+        <v>0.18077276161167</v>
       </c>
     </row>
     <row r="8">
@@ -3858,19 +3858,19 @@
         <v>152007</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>132373</v>
+        <v>132754</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>172889</v>
+        <v>173445</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3629602597014922</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3160782008156909</v>
+        <v>0.3169884918099209</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4128240751344776</v>
+        <v>0.4141498339118665</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>131</v>
@@ -3879,19 +3879,19 @@
         <v>139825</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>121709</v>
+        <v>121298</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>159251</v>
+        <v>158100</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4136712246622639</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3600728703310205</v>
+        <v>0.3588583208334042</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4711401519226653</v>
+        <v>0.4677371279085789</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>275</v>
@@ -3900,19 +3900,19 @@
         <v>291832</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>263555</v>
+        <v>264416</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>318494</v>
+        <v>321704</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3856091583643282</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3482454795173442</v>
+        <v>0.3493826955312786</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4208384046759799</v>
+        <v>0.425080353110376</v>
       </c>
     </row>
     <row r="10">
@@ -3929,19 +3929,19 @@
         <v>100726</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>83273</v>
+        <v>83865</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>121457</v>
+        <v>121105</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2405119428188057</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1988391293145854</v>
+        <v>0.2002521200608673</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2900144321573905</v>
+        <v>0.2891727594978211</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>63</v>
@@ -3950,19 +3950,19 @@
         <v>72262</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>55886</v>
+        <v>57906</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>90216</v>
+        <v>89147</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2137848069688764</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1653368341977198</v>
+        <v>0.1713137584144156</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2669033474505317</v>
+        <v>0.2637410952226086</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>150</v>
@@ -3971,19 +3971,19 @@
         <v>172987</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>149902</v>
+        <v>147993</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>200428</v>
+        <v>197356</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.228574875719389</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1980708995237553</v>
+        <v>0.1955485380497846</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2648338315695551</v>
+        <v>0.2607748410026622</v>
       </c>
     </row>
     <row r="11">
@@ -4000,19 +4000,19 @@
         <v>105662</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>87404</v>
+        <v>87486</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>127617</v>
+        <v>125502</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2522997781190244</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2087018200585603</v>
+        <v>0.2088993216643457</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3047239754077493</v>
+        <v>0.299672549231025</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>80</v>
@@ -4021,19 +4021,19 @@
         <v>90841</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>74809</v>
+        <v>72833</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>109479</v>
+        <v>109166</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2687510959875556</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.221322481311383</v>
+        <v>0.2154759628146167</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3238925087356161</v>
+        <v>0.3229661530380898</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>172</v>
@@ -4042,19 +4042,19 @@
         <v>196503</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>171417</v>
+        <v>172614</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>224706</v>
+        <v>224742</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2596473849248247</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.226500471313145</v>
+        <v>0.2280821661657015</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2969131247776807</v>
+        <v>0.2969598816218386</v>
       </c>
     </row>
     <row r="12">
@@ -4071,19 +4071,19 @@
         <v>60402</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>46153</v>
+        <v>44962</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>79185</v>
+        <v>76062</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1442280193606777</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1102031594360231</v>
+        <v>0.1073589908252889</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1890783136303181</v>
+        <v>0.181620096040345</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>31</v>
@@ -4092,19 +4092,19 @@
         <v>35083</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>24122</v>
+        <v>24886</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>49046</v>
+        <v>49586</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.103792872381304</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.07136430543375348</v>
+        <v>0.07362423879028969</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.145101546557683</v>
+        <v>0.146700409129278</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>83</v>
@@ -4113,19 +4113,19 @@
         <v>95485</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>77547</v>
+        <v>77150</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>116348</v>
+        <v>118240</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.126168580991458</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1024653060641959</v>
+        <v>0.1019409427477774</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1537357251154743</v>
+        <v>0.1562348622558997</v>
       </c>
     </row>
     <row r="13">
@@ -4217,19 +4217,19 @@
         <v>180621</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>159113</v>
+        <v>158670</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>203804</v>
+        <v>202523</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.286966747640702</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2527949351744122</v>
+        <v>0.252090996469832</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3237983794679924</v>
+        <v>0.3217638416944751</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>65</v>
@@ -4238,19 +4238,19 @@
         <v>65188</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>52248</v>
+        <v>52014</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>79511</v>
+        <v>79812</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.250599102397399</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2008534760591079</v>
+        <v>0.1999551795425188</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3056595472173499</v>
+        <v>0.3068188401081655</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>241</v>
@@ -4259,19 +4259,19 @@
         <v>245809</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>219554</v>
+        <v>215081</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>275822</v>
+        <v>271827</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2763317569356376</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2468162629697108</v>
+        <v>0.2417879290319385</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3100710493121341</v>
+        <v>0.3055805694076579</v>
       </c>
     </row>
     <row r="15">
@@ -4288,19 +4288,19 @@
         <v>139144</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>118881</v>
+        <v>119607</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>161869</v>
+        <v>163428</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2210681353326057</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1888749368364638</v>
+        <v>0.190029350534676</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2571732588763593</v>
+        <v>0.259650114294077</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>46</v>
@@ -4309,19 +4309,19 @@
         <v>50506</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>38441</v>
+        <v>38927</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>64123</v>
+        <v>65350</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1941563238344406</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1477784031399581</v>
+        <v>0.149643152157428</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2465031080132011</v>
+        <v>0.2512197253933039</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>175</v>
@@ -4330,19 +4330,19 @@
         <v>189649</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>165597</v>
+        <v>165278</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>217967</v>
+        <v>215868</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2131983141433404</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1861591566898577</v>
+        <v>0.1858013414362653</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2450322205721416</v>
+        <v>0.2426726394579181</v>
       </c>
     </row>
     <row r="16">
@@ -4359,19 +4359,19 @@
         <v>170264</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>149527</v>
+        <v>149151</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>196181</v>
+        <v>194720</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2705122875690648</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2375642535079167</v>
+        <v>0.2369681838045016</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3116877259292047</v>
+        <v>0.3093670279305638</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>80</v>
@@ -4380,19 +4380,19 @@
         <v>88362</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>73448</v>
+        <v>73615</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>105041</v>
+        <v>105017</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3396856765916768</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2823536014261184</v>
+        <v>0.2829954833488169</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4038034805946631</v>
+        <v>0.4037126689515014</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>233</v>
@@ -4401,19 +4401,19 @@
         <v>258627</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>229469</v>
+        <v>232497</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>288607</v>
+        <v>288450</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2907406621138466</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2579620844820127</v>
+        <v>0.2613665333135912</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3244440757650767</v>
+        <v>0.3242667363489689</v>
       </c>
     </row>
     <row r="17">
@@ -4430,19 +4430,19 @@
         <v>139386</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>118647</v>
+        <v>116587</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>161122</v>
+        <v>161836</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2214528294576275</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1885039245025057</v>
+        <v>0.1852313491448863</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2559861681632158</v>
+        <v>0.2571214680493477</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>53</v>
@@ -4451,19 +4451,19 @@
         <v>56073</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>44049</v>
+        <v>43372</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>69525</v>
+        <v>70226</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2155588971764835</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1693342243070553</v>
+        <v>0.1667342155541245</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2672715989975042</v>
+        <v>0.269966231217951</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>186</v>
@@ -4472,19 +4472,19 @@
         <v>195459</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>171056</v>
+        <v>172645</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>223206</v>
+        <v>223903</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2197292668071755</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1922958846434834</v>
+        <v>0.194082993701385</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.250921794029816</v>
+        <v>0.2517053113226469</v>
       </c>
     </row>
     <row r="18">
@@ -4576,19 +4576,19 @@
         <v>277716</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>248465</v>
+        <v>250964</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>309941</v>
+        <v>309001</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2396148061565995</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2143766882217417</v>
+        <v>0.2165331270094509</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2674188815458436</v>
+        <v>0.2666081011858282</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>217</v>
@@ -4597,19 +4597,19 @@
         <v>230080</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>205644</v>
+        <v>204980</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>256314</v>
+        <v>258193</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3001080684810442</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2682346030257599</v>
+        <v>0.2673679777315096</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3343268733331452</v>
+        <v>0.336777930610159</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>474</v>
@@ -4618,19 +4618,19 @@
         <v>507796</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>469530</v>
+        <v>467299</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>551651</v>
+        <v>548721</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2636987299045209</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2438274244407946</v>
+        <v>0.2426688828542553</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2864725948585162</v>
+        <v>0.2849511038980421</v>
       </c>
     </row>
     <row r="20">
@@ -4647,19 +4647,19 @@
         <v>276764</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>247853</v>
+        <v>247674</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>307130</v>
+        <v>306374</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2387937380034831</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2138491933549634</v>
+        <v>0.2136950531592925</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2649935948413141</v>
+        <v>0.2643414968639828</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>166</v>
@@ -4668,19 +4668,19 @@
         <v>181726</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>158180</v>
+        <v>155646</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>207541</v>
+        <v>207148</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2370363322016683</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2063248841509648</v>
+        <v>0.2030197127706869</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2707095398212191</v>
+        <v>0.2701963849187585</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>419</v>
@@ -4689,19 +4689,19 @@
         <v>458490</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>422507</v>
+        <v>419192</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>497621</v>
+        <v>497127</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.238094069549531</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2194082809409486</v>
+        <v>0.2176868134716936</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2584146556481678</v>
+        <v>0.2581583147951673</v>
       </c>
     </row>
     <row r="21">
@@ -4718,19 +4718,19 @@
         <v>346187</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>312125</v>
+        <v>316181</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>374609</v>
+        <v>376902</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2986922669335577</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.269302983352516</v>
+        <v>0.2728025602287014</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3232145719077567</v>
+        <v>0.3251934794356217</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>205</v>
@@ -4739,19 +4739,19 @@
         <v>223610</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>198338</v>
+        <v>196675</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>249564</v>
+        <v>251990</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2916691117212539</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2587056268088217</v>
+        <v>0.2565364351022276</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3255222342240452</v>
+        <v>0.3286864183387979</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>529</v>
@@ -4760,19 +4760,19 @@
         <v>569797</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>529179</v>
+        <v>528958</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>612452</v>
+        <v>610483</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2958961681929118</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2748032163899554</v>
+        <v>0.2746883202369848</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3180467393061074</v>
+        <v>0.3170242725476167</v>
       </c>
     </row>
     <row r="22">
@@ -4789,19 +4789,19 @@
         <v>258342</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>229891</v>
+        <v>230298</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>288037</v>
+        <v>285753</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2228991889063597</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1983509414523321</v>
+        <v>0.1987029287806203</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2485203386302441</v>
+        <v>0.246549754913015</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>123</v>
@@ -4810,19 +4810,19 @@
         <v>131241</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>111427</v>
+        <v>111090</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>154772</v>
+        <v>154338</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1711864875960335</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.145341518566849</v>
+        <v>0.1449021270717468</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2018794591498907</v>
+        <v>0.2013135504108814</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>372</v>
@@ -4831,19 +4831,19 @@
         <v>389584</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>356874</v>
+        <v>355703</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>428572</v>
+        <v>428618</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2023110323530363</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1853249679450459</v>
+        <v>0.1847168225603643</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2225575207762297</v>
+        <v>0.222581345245252</v>
       </c>
     </row>
     <row r="23">
@@ -4935,19 +4935,19 @@
         <v>94379</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>78438</v>
+        <v>76813</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>113595</v>
+        <v>112777</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1848410992815122</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1536204240789821</v>
+        <v>0.1504384418292504</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.222476215826422</v>
+        <v>0.2208734715496765</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>143</v>
@@ -4956,19 +4956,19 @@
         <v>149932</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>128633</v>
+        <v>130407</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>172540</v>
+        <v>174068</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1968843441671406</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1689153056211684</v>
+        <v>0.1712448842736031</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2265723165915956</v>
+        <v>0.2285789568307595</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>234</v>
@@ -4977,19 +4977,19 @@
         <v>244311</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>216458</v>
+        <v>214173</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>272151</v>
+        <v>272897</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1920504874527806</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1701557887198026</v>
+        <v>0.1683597488456783</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2139351195216488</v>
+        <v>0.2145219740937507</v>
       </c>
     </row>
     <row r="25">
@@ -5006,19 +5006,19 @@
         <v>82773</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>64728</v>
+        <v>67769</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>99324</v>
+        <v>101600</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1621113227019058</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.126769976749845</v>
+        <v>0.1327250854132803</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.194525042038501</v>
+        <v>0.1989837963235163</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>121</v>
@@ -5027,19 +5027,19 @@
         <v>135256</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>115421</v>
+        <v>115959</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>157779</v>
+        <v>159781</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1776128149869975</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1515664463772621</v>
+        <v>0.1522723290812197</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2071891389244986</v>
+        <v>0.209817927088207</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>200</v>
@@ -5048,19 +5048,19 @@
         <v>218029</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>190040</v>
+        <v>190519</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>246066</v>
+        <v>246165</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1713909044241467</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1493886149465231</v>
+        <v>0.1497654546587161</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1934300711726775</v>
+        <v>0.1935078906835147</v>
       </c>
     </row>
     <row r="26">
@@ -5077,19 +5077,19 @@
         <v>195817</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>173942</v>
+        <v>174619</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>216340</v>
+        <v>219273</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3835069350388524</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3406651401184325</v>
+        <v>0.3419909514630246</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4237005966607361</v>
+        <v>0.4294448569379252</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>237</v>
@@ -5098,19 +5098,19 @@
         <v>260377</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>233889</v>
+        <v>234016</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>284415</v>
+        <v>287523</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3419167810822934</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3071331645786589</v>
+        <v>0.3072997807773238</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3734824151810647</v>
+        <v>0.3775632028306805</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>419</v>
@@ -5119,19 +5119,19 @@
         <v>456194</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>424350</v>
+        <v>421557</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>490887</v>
+        <v>491202</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3586100267036698</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3335774458396991</v>
+        <v>0.3313816895260121</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.385881963951686</v>
+        <v>0.3861289479187919</v>
       </c>
     </row>
     <row r="27">
@@ -5148,19 +5148,19 @@
         <v>137626</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>117249</v>
+        <v>118197</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>158498</v>
+        <v>159124</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2695406429777296</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2296312262699862</v>
+        <v>0.2314885843836007</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3104185071308409</v>
+        <v>0.3116430873110025</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>202</v>
@@ -5169,19 +5169,19 @@
         <v>215957</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>190021</v>
+        <v>192004</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>242567</v>
+        <v>242198</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2835860597635684</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2495281749839983</v>
+        <v>0.2521320930453579</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3185296676561246</v>
+        <v>0.3180441969871307</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>337</v>
@@ -5190,19 +5190,19 @@
         <v>353583</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>321631</v>
+        <v>320962</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>384888</v>
+        <v>385009</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2779485814194029</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2528314656723766</v>
+        <v>0.2523050084909391</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3025570802548831</v>
+        <v>0.3026516020589812</v>
       </c>
     </row>
     <row r="28">
@@ -5294,19 +5294,19 @@
         <v>86387</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>71490</v>
+        <v>71512</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>102284</v>
+        <v>101806</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3236886765816037</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2678693971793201</v>
+        <v>0.2679544985168807</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3832571480706702</v>
+        <v>0.3814630260367556</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>334</v>
@@ -5315,19 +5315,19 @@
         <v>344683</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>311812</v>
+        <v>314324</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>377512</v>
+        <v>376417</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3107073278687346</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2810760847701033</v>
+        <v>0.2833407922789554</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3402995662729023</v>
+        <v>0.3393131764382031</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>423</v>
@@ -5336,19 +5336,19 @@
         <v>431070</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>401728</v>
+        <v>395946</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>466848</v>
+        <v>466254</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3132246973049244</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.291904308349906</v>
+        <v>0.2877026587980371</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3392213953544752</v>
+        <v>0.338790049962182</v>
       </c>
     </row>
     <row r="30">
@@ -5365,19 +5365,19 @@
         <v>56062</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>42753</v>
+        <v>43753</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>69204</v>
+        <v>71381</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2100640472836818</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1601953241706515</v>
+        <v>0.1639406626068023</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2593041280807926</v>
+        <v>0.2674615254967487</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>247</v>
@@ -5386,19 +5386,19 @@
         <v>268045</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>239088</v>
+        <v>241342</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>295703</v>
+        <v>300576</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2416235098373483</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2155206576716036</v>
+        <v>0.2175523137183122</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2665546024075094</v>
+        <v>0.270947722715706</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>301</v>
@@ -5407,19 +5407,19 @@
         <v>324108</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>291478</v>
+        <v>291674</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>355596</v>
+        <v>357259</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2355034349350836</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2117943087147098</v>
+        <v>0.211936209351767</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2583836913171982</v>
+        <v>0.2595918679325976</v>
       </c>
     </row>
     <row r="31">
@@ -5436,19 +5436,19 @@
         <v>79518</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>65702</v>
+        <v>65132</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>96099</v>
+        <v>96169</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2979535289058298</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2461846108384778</v>
+        <v>0.2440465453051257</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3600803838266392</v>
+        <v>0.3603409262267717</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>271</v>
@@ -5457,19 +5457,19 @@
         <v>291415</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>263701</v>
+        <v>260212</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>322929</v>
+        <v>322134</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2626893557114325</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2377075672772573</v>
+        <v>0.2345624201877952</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2910969530385211</v>
+        <v>0.2903805712465655</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>349</v>
@@ -5478,19 +5478,19 @@
         <v>370933</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>338022</v>
+        <v>338781</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>403372</v>
+        <v>408231</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2695278556050586</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.245614253759236</v>
+        <v>0.246165372894302</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2930987956325763</v>
+        <v>0.2966296306291349</v>
       </c>
     </row>
     <row r="32">
@@ -5507,19 +5507,19 @@
         <v>44915</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>33714</v>
+        <v>34230</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>58651</v>
+        <v>58051</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1682937472288847</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1263255951496041</v>
+        <v>0.1282604742351997</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2197644225578711</v>
+        <v>0.2175147459233894</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>192</v>
@@ -5528,19 +5528,19 @@
         <v>205208</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>180377</v>
+        <v>178666</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>233189</v>
+        <v>232241</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1849798065824846</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1625967625125455</v>
+        <v>0.1610541717434009</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.210203037344166</v>
+        <v>0.2093489274320716</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>236</v>
@@ -5549,19 +5549,19 @@
         <v>250122</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>222446</v>
+        <v>220830</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>278916</v>
+        <v>279239</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1817440121549334</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1616336136879437</v>
+        <v>0.1604600967282122</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2026665033668563</v>
+        <v>0.2029007274102727</v>
       </c>
     </row>
     <row r="33">
@@ -5653,19 +5653,19 @@
         <v>945845</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>895561</v>
+        <v>891838</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>999458</v>
+        <v>1004980</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2764085890744771</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2617138952078747</v>
+        <v>0.2606257163967758</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2920759475497242</v>
+        <v>0.2936897027294139</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1001</v>
@@ -5674,19 +5674,19 @@
         <v>1049852</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>998280</v>
+        <v>992770</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>1108996</v>
+        <v>1109471</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2957226223421884</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2811956791080873</v>
+        <v>0.2796437869898599</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3123823735440727</v>
+        <v>0.3125160470217597</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1909</v>
@@ -5695,19 +5695,19 @@
         <v>1995698</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1917900</v>
+        <v>1921055</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>2075231</v>
+        <v>2078041</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.286243197654743</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2750846281522961</v>
+        <v>0.2755371642182659</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2976507493531075</v>
+        <v>0.2980537531654242</v>
       </c>
     </row>
     <row r="35">
@@ -5724,19 +5724,19 @@
         <v>754649</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>701913</v>
+        <v>706679</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>805007</v>
+        <v>805112</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2205342992713576</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2051230514135282</v>
+        <v>0.2065159078673907</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2352506464723574</v>
+        <v>0.235281362223739</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>703</v>
@@ -5745,19 +5745,19 @@
         <v>775041</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>723192</v>
+        <v>722014</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>828612</v>
+        <v>825306</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2183138469554553</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2037088891957749</v>
+        <v>0.2033770712709461</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2334035843821591</v>
+        <v>0.2324723848791389</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>1390</v>
@@ -5766,19 +5766,19 @@
         <v>1529690</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>1454372</v>
+        <v>1453504</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>1606696</v>
+        <v>1599996</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2194036561221325</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2086007493497022</v>
+        <v>0.2084763289626097</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2304487004193812</v>
+        <v>0.229487608971014</v>
       </c>
     </row>
     <row r="36">
@@ -5795,19 +5795,19 @@
         <v>1017947</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>961497</v>
+        <v>955336</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1070795</v>
+        <v>1073623</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2974792338355949</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.280982682786208</v>
+        <v>0.2791821454579708</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3129230715209795</v>
+        <v>0.3137497363540936</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>938</v>
@@ -5816,19 +5816,19 @@
         <v>1030113</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>976812</v>
+        <v>972870</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>1084843</v>
+        <v>1088044</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2901624281741047</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2751486861953662</v>
+        <v>0.2740382413775762</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.305578898630767</v>
+        <v>0.3064803504668474</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1874</v>
@@ -5837,19 +5837,19 @@
         <v>2048060</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1973577</v>
+        <v>1968621</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>2124107</v>
+        <v>2127172</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2937535532001097</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2830703678922017</v>
+        <v>0.2823596238914404</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3046609147219168</v>
+        <v>0.3051006072059097</v>
       </c>
     </row>
     <row r="37">
@@ -5866,19 +5866,19 @@
         <v>703469</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>658311</v>
+        <v>655605</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>754568</v>
+        <v>751385</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2055778778185703</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1923812894074984</v>
+        <v>0.1915902583780932</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2205108067533796</v>
+        <v>0.2195805108088986</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>648</v>
@@ -5887,19 +5887,19 @@
         <v>695118</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>643572</v>
+        <v>651142</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>742737</v>
+        <v>745201</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1958011025282516</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1812814658056249</v>
+        <v>0.1834139234734104</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2092142261114073</v>
+        <v>0.2099084654574269</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1322</v>
@@ -5908,19 +5908,19 @@
         <v>1398587</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1331819</v>
+        <v>1330852</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1464829</v>
+        <v>1470581</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2005995930230148</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1910230639447018</v>
+        <v>0.1908843313987367</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2101005754785005</v>
+        <v>0.2109256002222997</v>
       </c>
     </row>
     <row r="38">
@@ -6254,19 +6254,19 @@
         <v>184088</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>162594</v>
+        <v>162688</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>204554</v>
+        <v>205596</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4290166036411003</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3789261938943396</v>
+        <v>0.3791453469130942</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4767126388816724</v>
+        <v>0.4791430906922439</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>134</v>
@@ -6275,19 +6275,19 @@
         <v>144477</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>125688</v>
+        <v>123983</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>163937</v>
+        <v>161382</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.416295597375846</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3621555865103908</v>
+        <v>0.357243013446287</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4723667876766005</v>
+        <v>0.4650026783349576</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>310</v>
@@ -6296,19 +6296,19 @@
         <v>328565</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>299770</v>
+        <v>299885</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>355255</v>
+        <v>358238</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4233283923709991</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3862280563195152</v>
+        <v>0.3863765540880696</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.457715698697559</v>
+        <v>0.4615593456820611</v>
       </c>
     </row>
     <row r="5">
@@ -6325,19 +6325,19 @@
         <v>80777</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>65714</v>
+        <v>65072</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>100395</v>
+        <v>98096</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1882514052746943</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.153146320681178</v>
+        <v>0.151649524681507</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2339716255312779</v>
+        <v>0.2286134299527574</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>69</v>
@@ -6346,19 +6346,19 @@
         <v>71170</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>57301</v>
+        <v>57588</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>86822</v>
+        <v>88276</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2050678880960877</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1651069715833576</v>
+        <v>0.1659346270233014</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2501689947909195</v>
+        <v>0.2543587216399088</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>140</v>
@@ -6367,19 +6367,19 @@
         <v>151947</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>128572</v>
+        <v>129610</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>176244</v>
+        <v>176603</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1957709131747402</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1656538508357077</v>
+        <v>0.1669910605471948</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2270756570632096</v>
+        <v>0.2275386105521862</v>
       </c>
     </row>
     <row r="6">
@@ -6396,19 +6396,19 @@
         <v>112441</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>94976</v>
+        <v>95699</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>133805</v>
+        <v>131925</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2620437395563177</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2213419945243394</v>
+        <v>0.2230260666196114</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3118338275052764</v>
+        <v>0.3074520122682096</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>88</v>
@@ -6417,19 +6417,19 @@
         <v>92257</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>77550</v>
+        <v>75947</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>111004</v>
+        <v>110447</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2658293735521062</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2234522583144363</v>
+        <v>0.2188336031231103</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3198466980859915</v>
+        <v>0.3182393722801162</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>189</v>
@@ -6438,19 +6438,19 @@
         <v>204698</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>181812</v>
+        <v>181871</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>230961</v>
+        <v>231484</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2637364897610038</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2342494582339533</v>
+        <v>0.2343253302727663</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2975739386934564</v>
+        <v>0.298247332125059</v>
       </c>
     </row>
     <row r="7">
@@ -6467,19 +6467,19 @@
         <v>51786</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>39070</v>
+        <v>38561</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>66697</v>
+        <v>66986</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1206882515278878</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0910525768157253</v>
+        <v>0.08986693285939512</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.155438045269989</v>
+        <v>0.1561101635427749</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>41</v>
@@ -6488,19 +6488,19 @@
         <v>39150</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>27609</v>
+        <v>28976</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>51755</v>
+        <v>52461</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1128071409759601</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07955084388698005</v>
+        <v>0.08348969874443755</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1491267924058367</v>
+        <v>0.1511604310259204</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>89</v>
@@ -6509,19 +6509,19 @@
         <v>90937</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>73008</v>
+        <v>74255</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>111010</v>
+        <v>110330</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1171642046932569</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09406527747989632</v>
+        <v>0.09567120983654626</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1430268826416051</v>
+        <v>0.1421511939293785</v>
       </c>
     </row>
     <row r="8">
@@ -6613,19 +6613,19 @@
         <v>149812</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>131867</v>
+        <v>132102</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>169794</v>
+        <v>170409</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3971399970114784</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3495688881368225</v>
+        <v>0.3501921045180051</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4501113374472959</v>
+        <v>0.4517418539421824</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>138</v>
@@ -6634,19 +6634,19 @@
         <v>149556</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>129548</v>
+        <v>130834</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>169866</v>
+        <v>169463</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.401736877704135</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3479911312557066</v>
+        <v>0.3514464507691831</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4562928425534269</v>
+        <v>0.4552108808402732</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>285</v>
@@ -6655,19 +6655,19 @@
         <v>299368</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>270938</v>
+        <v>273854</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>327662</v>
+        <v>325377</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3994232461089907</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3614911294630584</v>
+        <v>0.3653823705719445</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4371743743038221</v>
+        <v>0.4341253429019039</v>
       </c>
     </row>
     <row r="10">
@@ -6684,19 +6684,19 @@
         <v>76862</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>61678</v>
+        <v>62109</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>94250</v>
+        <v>94113</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.203756542195691</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1635027679296435</v>
+        <v>0.1646452273951177</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2498487838755984</v>
+        <v>0.2494876181458597</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>95</v>
@@ -6705,19 +6705,19 @@
         <v>97293</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>80418</v>
+        <v>80866</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>116145</v>
+        <v>114693</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2613494944179204</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2160197138645934</v>
+        <v>0.2172221110622244</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3119878996511785</v>
+        <v>0.3080885592056788</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>165</v>
@@ -6726,19 +6726,19 @@
         <v>174156</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>151226</v>
+        <v>151320</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>199213</v>
+        <v>196764</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2323626916645131</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2017691718748768</v>
+        <v>0.2018945108647131</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2657941668976675</v>
+        <v>0.2625276775309803</v>
       </c>
     </row>
     <row r="11">
@@ -6755,19 +6755,19 @@
         <v>108571</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>90536</v>
+        <v>90523</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>126889</v>
+        <v>127199</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2878135997171866</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2400028691180468</v>
+        <v>0.2399708672101614</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3363741769419962</v>
+        <v>0.3371941926399094</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>87</v>
@@ -6776,19 +6776,19 @@
         <v>94968</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>78567</v>
+        <v>76952</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>115096</v>
+        <v>113054</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2551039277145089</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2110462570898999</v>
+        <v>0.2067097486002266</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3091699175431487</v>
+        <v>0.3036854012396353</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>183</v>
@@ -6797,19 +6797,19 @@
         <v>203539</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>177918</v>
+        <v>179843</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>229179</v>
+        <v>230599</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2715668589219892</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2373819703494687</v>
+        <v>0.2399501605629069</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3057756520238356</v>
+        <v>0.3076707285169014</v>
       </c>
     </row>
     <row r="12">
@@ -6826,19 +6826,19 @@
         <v>41982</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>30295</v>
+        <v>30048</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>54354</v>
+        <v>54621</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1112898610756441</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08030991218054055</v>
+        <v>0.07965479296379402</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1440891481203159</v>
+        <v>0.1447969593619554</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>32</v>
@@ -6847,19 +6847,19 @@
         <v>30456</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>20569</v>
+        <v>21888</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>41324</v>
+        <v>41428</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.08180970016343572</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.05525267261776637</v>
+        <v>0.05879556608177661</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1110045463309378</v>
+        <v>0.1112846475082763</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>73</v>
@@ -6868,19 +6868,19 @@
         <v>72437</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>57517</v>
+        <v>55928</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>88793</v>
+        <v>89657</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.09664720330450687</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.07674006401370741</v>
+        <v>0.07462067797794718</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1184701635978882</v>
+        <v>0.1196222556073728</v>
       </c>
     </row>
     <row r="13">
@@ -6972,19 +6972,19 @@
         <v>154804</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>134858</v>
+        <v>135472</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>173861</v>
+        <v>177354</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.296608209940163</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2583905854372622</v>
+        <v>0.2595677828397536</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3331216047959004</v>
+        <v>0.3398138590326409</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>41</v>
@@ -6993,19 +6993,19 @@
         <v>45648</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>34231</v>
+        <v>34091</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>58165</v>
+        <v>57544</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.274783710259027</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2060563903790011</v>
+        <v>0.2052182503389092</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3501292433546533</v>
+        <v>0.3463909308535809</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>200</v>
@@ -7014,19 +7014,19 @@
         <v>200452</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>176859</v>
+        <v>176652</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>224943</v>
+        <v>223323</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2913387989236617</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2570491125278422</v>
+        <v>0.2567476093297621</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3269349743858116</v>
+        <v>0.3245804410247716</v>
       </c>
     </row>
     <row r="15">
@@ -7043,19 +7043,19 @@
         <v>119561</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>102013</v>
+        <v>100731</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>139554</v>
+        <v>139138</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2290824985658474</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1954585280706881</v>
+        <v>0.193002465675269</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2673893090008266</v>
+        <v>0.2665914874748188</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>33</v>
@@ -7064,19 +7064,19 @@
         <v>35211</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>25886</v>
+        <v>25427</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>47024</v>
+        <v>46992</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2119585556986018</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1558271201831717</v>
+        <v>0.1530603696671603</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2830690887605929</v>
+        <v>0.2828728592132836</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>145</v>
@@ -7085,19 +7085,19 @@
         <v>154772</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>133415</v>
+        <v>133980</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>181283</v>
+        <v>178832</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2249480123458221</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1939066984356813</v>
+        <v>0.1947274723209609</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2634788080240111</v>
+        <v>0.2599166428647005</v>
       </c>
     </row>
     <row r="16">
@@ -7114,19 +7114,19 @@
         <v>153245</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>132834</v>
+        <v>133122</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>172945</v>
+        <v>176291</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2936209874685093</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2545126412271385</v>
+        <v>0.2550645573049776</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3313662162003387</v>
+        <v>0.3377775594432095</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>51</v>
@@ -7135,19 +7135,19 @@
         <v>56746</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>44209</v>
+        <v>44558</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>70177</v>
+        <v>71649</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3415884222464087</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.266120868467744</v>
+        <v>0.2682240702515664</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4224410858649748</v>
+        <v>0.431302911938741</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>195</v>
@@ -7156,19 +7156,19 @@
         <v>209990</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>188201</v>
+        <v>185436</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>237370</v>
+        <v>235362</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.305202473089939</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.273533874600252</v>
+        <v>0.2695142413485468</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3449963776800948</v>
+        <v>0.342077725077056</v>
       </c>
     </row>
     <row r="17">
@@ -7185,19 +7185,19 @@
         <v>94304</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>76469</v>
+        <v>77745</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>112877</v>
+        <v>112321</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1806883040254803</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1465164756091465</v>
+        <v>0.1489614997373715</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2162757772949677</v>
+        <v>0.2152091209718736</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>28</v>
@@ -7206,19 +7206,19 @@
         <v>28518</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>19532</v>
+        <v>19455</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>39484</v>
+        <v>40528</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1716693117959624</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1175781592953664</v>
+        <v>0.1171120601155743</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2376784050799108</v>
+        <v>0.2439661225687133</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>115</v>
@@ -7227,19 +7227,19 @@
         <v>122822</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>103969</v>
+        <v>103372</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>142980</v>
+        <v>145258</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1785107156405772</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1511091661611152</v>
+        <v>0.1502419905092537</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2078082755475574</v>
+        <v>0.2111198607612456</v>
       </c>
     </row>
     <row r="18">
@@ -7331,19 +7331,19 @@
         <v>269562</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>242936</v>
+        <v>242903</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>298815</v>
+        <v>300740</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2344759591855125</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2113147888915748</v>
+        <v>0.2112868204558593</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2599209832038265</v>
+        <v>0.2615956951500597</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>202</v>
@@ -7352,19 +7352,19 @@
         <v>215678</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>187571</v>
+        <v>190276</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>242326</v>
+        <v>243087</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2611509178791944</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2271173224019863</v>
+        <v>0.2303928913540531</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2934172896246913</v>
+        <v>0.2943387776860589</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>475</v>
@@ -7373,19 +7373,19 @@
         <v>485241</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>444885</v>
+        <v>447426</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>523838</v>
+        <v>523591</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2456275895216028</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2251995890823616</v>
+        <v>0.2264857336122164</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2651653358012788</v>
+        <v>0.2650406086728637</v>
       </c>
     </row>
     <row r="20">
@@ -7402,19 +7402,19 @@
         <v>307695</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>277610</v>
+        <v>277379</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>339628</v>
+        <v>336426</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2676449984082334</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2414763246625829</v>
+        <v>0.2412746670545376</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2954219651560271</v>
+        <v>0.292636150497522</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>191</v>
@@ -7423,19 +7423,19 @@
         <v>197030</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>172124</v>
+        <v>176152</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>219928</v>
+        <v>225934</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.238571243233885</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2084137074429121</v>
+        <v>0.2132916994474408</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.266296173052837</v>
+        <v>0.273569317285366</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>475</v>
@@ -7444,19 +7444,19 @@
         <v>504725</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>467244</v>
+        <v>468015</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>541905</v>
+        <v>547994</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2554905364684997</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2365177248613049</v>
+        <v>0.2369080289003023</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2743110291312932</v>
+        <v>0.2773933439640714</v>
       </c>
     </row>
     <row r="21">
@@ -7473,19 +7473,19 @@
         <v>352861</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>321986</v>
+        <v>320655</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>384923</v>
+        <v>385012</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3069319665566629</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2800764016471915</v>
+        <v>0.2789185043407797</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3348212637925265</v>
+        <v>0.3348985255991419</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>245</v>
@@ -7494,19 +7494,19 @@
         <v>253739</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>228371</v>
+        <v>225603</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>280302</v>
+        <v>280878</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.307235815812429</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.276519215201025</v>
+        <v>0.2731680367171485</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3393997815594478</v>
+        <v>0.3400974692714328</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>577</v>
@@ -7515,19 +7515,19 @@
         <v>606599</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>568451</v>
+        <v>569291</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>653148</v>
+        <v>653426</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3070589926044672</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2877482248727697</v>
+        <v>0.2881736167971583</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3306219924514364</v>
+        <v>0.330762592795061</v>
       </c>
     </row>
     <row r="22">
@@ -7544,19 +7544,19 @@
         <v>219520</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>195152</v>
+        <v>193781</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>248015</v>
+        <v>244949</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1909470758495911</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1697505825246912</v>
+        <v>0.1685586655841152</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2157331168734249</v>
+        <v>0.213066388352518</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>160</v>
@@ -7565,19 +7565,19 @@
         <v>159429</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>138044</v>
+        <v>138098</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>182699</v>
+        <v>182672</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1930420230744916</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1671482984804647</v>
+        <v>0.1672143858666486</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2212190011352639</v>
+        <v>0.2211857252106011</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>374</v>
@@ -7586,19 +7586,19 @@
         <v>378949</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>346558</v>
+        <v>340176</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>415389</v>
+        <v>413552</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1918228814054303</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1754265268982364</v>
+        <v>0.1721962706843073</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2102690520750879</v>
+        <v>0.2093388980209553</v>
       </c>
     </row>
     <row r="23">
@@ -7690,19 +7690,19 @@
         <v>84328</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>69067</v>
+        <v>68712</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>101653</v>
+        <v>102607</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1358581533354681</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1112719278511937</v>
+        <v>0.1107000182347281</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1637703603064476</v>
+        <v>0.1653065392148604</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>140</v>
@@ -7711,19 +7711,19 @@
         <v>151194</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>129807</v>
+        <v>130165</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>175210</v>
+        <v>176042</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2048020422550929</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1758323168701192</v>
+        <v>0.1763167458570689</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2373330800988691</v>
+        <v>0.2384609782071821</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>223</v>
@@ -7732,19 +7732,19 @@
         <v>235522</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>210041</v>
+        <v>206448</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>263515</v>
+        <v>262219</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1733116438084499</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1545609678394499</v>
+        <v>0.151917225457447</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1939108688632293</v>
+        <v>0.1929567582320101</v>
       </c>
     </row>
     <row r="25">
@@ -7761,19 +7761,19 @@
         <v>106969</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>87788</v>
+        <v>88254</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>126058</v>
+        <v>127467</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1723347550921381</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1414319106159835</v>
+        <v>0.1421837429078054</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2030887037123651</v>
+        <v>0.2053585861421077</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>128</v>
@@ -7782,19 +7782,19 @@
         <v>139766</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>120371</v>
+        <v>121233</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>163623</v>
+        <v>161480</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1893217937933145</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1630507112410584</v>
+        <v>0.164218579309969</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.22163840654088</v>
+        <v>0.2187351971160605</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>226</v>
@@ -7803,19 +7803,19 @@
         <v>246735</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>214953</v>
+        <v>214999</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>277199</v>
+        <v>276937</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1815628955717156</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1581760553298125</v>
+        <v>0.1582096021093344</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2039799254524903</v>
+        <v>0.2037873501808961</v>
       </c>
     </row>
     <row r="26">
@@ -7832,19 +7832,19 @@
         <v>214729</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>192616</v>
+        <v>191124</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>237656</v>
+        <v>237487</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3459439117969708</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3103168085519827</v>
+        <v>0.307914522427839</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3828796600637427</v>
+        <v>0.3826073249550588</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>229</v>
@@ -7853,19 +7853,19 @@
         <v>242276</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>217866</v>
+        <v>216779</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>267961</v>
+        <v>267934</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3281793485101262</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2951131878007519</v>
+        <v>0.2936415295179205</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3629712256276045</v>
+        <v>0.3629336612968985</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>434</v>
@@ -7874,19 +7874,19 @@
         <v>457006</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>425221</v>
+        <v>422868</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>495726</v>
+        <v>493482</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3362933842121956</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3129038856937726</v>
+        <v>0.3111726046581214</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3647857421438406</v>
+        <v>0.3631349805631259</v>
       </c>
     </row>
     <row r="27">
@@ -7903,19 +7903,19 @@
         <v>214679</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>192817</v>
+        <v>191204</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>241365</v>
+        <v>239182</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.345863179775423</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.310641747814084</v>
+        <v>0.3080427375798732</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3888552446853847</v>
+        <v>0.3853386232141051</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>202</v>
@@ -7924,19 +7924,19 @@
         <v>205008</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>181936</v>
+        <v>182609</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>228269</v>
+        <v>231891</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2776968154414663</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.246444074140929</v>
+        <v>0.2473563520235717</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.30920562756733</v>
+        <v>0.3141111062191206</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>413</v>
@@ -7945,19 +7945,19 @@
         <v>419687</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>386300</v>
+        <v>389869</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>454947</v>
+        <v>457394</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3088320764076388</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2842639400638912</v>
+        <v>0.286890000016841</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3347780903376099</v>
+        <v>0.336579253249945</v>
       </c>
     </row>
     <row r="28">
@@ -8049,19 +8049,19 @@
         <v>92927</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>79173</v>
+        <v>78499</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>111804</v>
+        <v>111190</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3236244036052164</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2757248594940347</v>
+        <v>0.273379131469048</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3893637178887495</v>
+        <v>0.3872242270883308</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>301</v>
@@ -8070,19 +8070,19 @@
         <v>334174</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>302129</v>
+        <v>304150</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>363169</v>
+        <v>368361</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3088417525339469</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2792251520048482</v>
+        <v>0.2810928727463514</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3356384810198928</v>
+        <v>0.3404367837561184</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>393</v>
@@ -8091,19 +8091,19 @@
         <v>427102</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>393536</v>
+        <v>393985</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>460002</v>
+        <v>463659</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3119420005108928</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2874266919627257</v>
+        <v>0.287754271923684</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3359712931707547</v>
+        <v>0.3386427235824874</v>
       </c>
     </row>
     <row r="30">
@@ -8120,19 +8120,19 @@
         <v>62576</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>49062</v>
+        <v>48802</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>78097</v>
+        <v>77326</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2179262886041401</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1708625381590193</v>
+        <v>0.1699546373377179</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2719790531699531</v>
+        <v>0.2692927893850322</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>217</v>
@@ -8141,19 +8141,19 @@
         <v>240928</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>214629</v>
+        <v>214728</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>272379</v>
+        <v>272771</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2226642816197704</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1983589812926704</v>
+        <v>0.1984499543805477</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2517306358004726</v>
+        <v>0.2520932271798111</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>274</v>
@@ -8162,19 +8162,19 @@
         <v>303505</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>272989</v>
+        <v>275906</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>337797</v>
+        <v>336705</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2216706199828506</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1993824992351953</v>
+        <v>0.2015135629830096</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2467166138589397</v>
+        <v>0.2459190391046982</v>
       </c>
     </row>
     <row r="31">
@@ -8191,19 +8191,19 @@
         <v>79112</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>64565</v>
+        <v>64975</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>93959</v>
+        <v>95035</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2755138548446038</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2248514625964904</v>
+        <v>0.2262797212090625</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3272187841775367</v>
+        <v>0.3309645282141302</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>273</v>
@@ -8212,19 +8212,19 @@
         <v>298566</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>271638</v>
+        <v>266507</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>329193</v>
+        <v>328846</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2759322876338993</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2510455950301554</v>
+        <v>0.2463039980292096</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3042378890443368</v>
+        <v>0.3039169837000879</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>345</v>
@@ -8233,19 +8233,19 @@
         <v>377678</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>344211</v>
+        <v>343111</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>412581</v>
+        <v>411678</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2758445330489979</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2514010997234684</v>
+        <v>0.2505975157758083</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3013365784400527</v>
+        <v>0.3006767630953395</v>
       </c>
     </row>
     <row r="32">
@@ -8262,19 +8262,19 @@
         <v>52529</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>41164</v>
+        <v>40052</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>67276</v>
+        <v>66455</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1829354529460397</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1433549818537011</v>
+        <v>0.139484002085904</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2342923947098069</v>
+        <v>0.2314347736104318</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>201</v>
@@ -8283,19 +8283,19 @@
         <v>208357</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>182972</v>
+        <v>183138</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>235605</v>
+        <v>237560</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1925616782123834</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1691014531636449</v>
+        <v>0.1692546840216851</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2177446041656315</v>
+        <v>0.219550879265276</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>252</v>
@@ -8304,19 +8304,19 @@
         <v>260886</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>233478</v>
+        <v>232750</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>293075</v>
+        <v>290923</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1905428464572587</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1705250794922906</v>
+        <v>0.1699934155228933</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2140528036526598</v>
+        <v>0.212481210562313</v>
       </c>
     </row>
     <row r="33">
@@ -8408,19 +8408,19 @@
         <v>935521</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>886334</v>
+        <v>885454</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>991046</v>
+        <v>993447</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2763136177408803</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2617858863737724</v>
+        <v>0.2615258880297027</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2927132458056</v>
+        <v>0.2934224236839653</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>956</v>
@@ -8429,19 +8429,19 @@
         <v>1040728</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>983279</v>
+        <v>981733</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>1095847</v>
+        <v>1097912</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.29469051202323</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2784233576375709</v>
+        <v>0.2779855987136486</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.310298029140386</v>
+        <v>0.3108825832062158</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1886</v>
@@ -8450,19 +8450,19 @@
         <v>1976249</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1900643</v>
+        <v>1896966</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>2054671</v>
+        <v>2052891</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2856958325769871</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2747658982492524</v>
+        <v>0.274234345769389</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2970328795743181</v>
+        <v>0.2967756097473385</v>
       </c>
     </row>
     <row r="35">
@@ -8479,19 +8479,19 @@
         <v>754442</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>699116</v>
+        <v>705403</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>804999</v>
+        <v>805393</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2228303264434522</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2064895084135754</v>
+        <v>0.2083465440830966</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2377629361787656</v>
+        <v>0.2378791797346302</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>733</v>
@@ -8500,19 +8500,19 @@
         <v>781399</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>729149</v>
+        <v>732306</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>831683</v>
+        <v>837581</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2212593556157409</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2064644573792794</v>
+        <v>0.207358499161703</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2354978835785894</v>
+        <v>0.2371678785957173</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>1425</v>
@@ -8521,19 +8521,19 @@
         <v>1535840</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>1461663</v>
+        <v>1470447</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>1604623</v>
+        <v>1608475</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2220282765660145</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2113049105394419</v>
+        <v>0.2125746924498127</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.231971778371225</v>
+        <v>0.2325286788899298</v>
       </c>
     </row>
     <row r="36">
@@ -8550,19 +8550,19 @@
         <v>1020959</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>959150</v>
+        <v>966438</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1074129</v>
+        <v>1072987</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3015484934014723</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2832926421231416</v>
+        <v>0.2854450684521138</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3172526351543501</v>
+        <v>0.3169153716438009</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>973</v>
@@ -8571,19 +8571,19 @@
         <v>1038552</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>981926</v>
+        <v>984796</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>1094001</v>
+        <v>1089420</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2940744499278163</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2780402855423167</v>
+        <v>0.2788529752110085</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3097752713695566</v>
+        <v>0.3084780564557016</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1923</v>
@@ -8592,19 +8592,19 @@
         <v>2059512</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1986277</v>
+        <v>1982892</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>2139398</v>
+        <v>2135946</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2977326646500606</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.287145479440142</v>
+        <v>0.2866562102288385</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3092814589878106</v>
+        <v>0.308782411588341</v>
       </c>
     </row>
     <row r="37">
@@ -8621,19 +8621,19 @@
         <v>674800</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>628593</v>
+        <v>629262</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>725203</v>
+        <v>723085</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1993075624141953</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1856599882795768</v>
+        <v>0.1858576190583276</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2141944869756466</v>
+        <v>0.2135688615129958</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>664</v>
@@ -8642,19 +8642,19 @@
         <v>670917</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>625055</v>
+        <v>627885</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>715793</v>
+        <v>719503</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1899756824332129</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1769892552576811</v>
+        <v>0.1777908218001815</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2026825003940875</v>
+        <v>0.2037330491606612</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1316</v>
@@ -8663,19 +8663,19 @@
         <v>1345717</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1275429</v>
+        <v>1280098</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1409513</v>
+        <v>1417080</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1945432262069378</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1843819948945099</v>
+        <v>0.1850569520171545</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2037658774124727</v>
+        <v>0.2048597606894323</v>
       </c>
     </row>
     <row r="38">
@@ -9009,19 +9009,19 @@
         <v>218066</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>194427</v>
+        <v>197272</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>244165</v>
+        <v>242252</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3960377558110968</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3531062213139501</v>
+        <v>0.3582742041792553</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4434376216923828</v>
+        <v>0.4399640705400836</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>270</v>
@@ -9030,19 +9030,19 @@
         <v>183729</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>165114</v>
+        <v>164775</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>203532</v>
+        <v>203001</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3761777857346263</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3380626311924222</v>
+        <v>0.337370249637398</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4167223776881991</v>
+        <v>0.4156351386286423</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>514</v>
@@ -9051,19 +9051,19 @@
         <v>401795</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>371606</v>
+        <v>372566</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>434908</v>
+        <v>433568</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3867022857152572</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3576473223301851</v>
+        <v>0.3585711390148805</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4185712626383709</v>
+        <v>0.4172816103113847</v>
       </c>
     </row>
     <row r="5">
@@ -9080,19 +9080,19 @@
         <v>130973</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>111619</v>
+        <v>110006</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>155445</v>
+        <v>151332</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.2378646251001455</v>
+        <v>0.2378646251001454</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2027154930177368</v>
+        <v>0.199787112507238</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2823097013801386</v>
+        <v>0.2748401116587413</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>145</v>
@@ -9101,19 +9101,19 @@
         <v>111485</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>96423</v>
+        <v>95476</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>129935</v>
+        <v>129285</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2282616208554124</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1974212343674264</v>
+        <v>0.195483053934704</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2660355561146384</v>
+        <v>0.2647049061482165</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>262</v>
@@ -9122,19 +9122,19 @@
         <v>242458</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>216158</v>
+        <v>212933</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>270365</v>
+        <v>267654</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2333505921679841</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2080382091267553</v>
+        <v>0.2049346752612173</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2602093539113501</v>
+        <v>0.2576002589915477</v>
       </c>
     </row>
     <row r="6">
@@ -9151,19 +9151,19 @@
         <v>131768</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>110191</v>
+        <v>111383</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>154525</v>
+        <v>153737</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2393093924654053</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2001219748507682</v>
+        <v>0.202287963659748</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2806396995457184</v>
+        <v>0.2792072753226652</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>171</v>
@@ -9172,19 +9172,19 @@
         <v>129557</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>112645</v>
+        <v>112929</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>148831</v>
+        <v>149495</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.2652631359774957</v>
+        <v>0.2652631359774956</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2306350619587978</v>
+        <v>0.2312163400860027</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.304725371890436</v>
+        <v>0.3060835261330383</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>294</v>
@@ -9193,19 +9193,19 @@
         <v>261325</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>235206</v>
+        <v>235183</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>291446</v>
+        <v>288918</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.251509330103744</v>
+        <v>0.2515093301037439</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2263711313552313</v>
+        <v>0.2263486003029211</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2804979904468837</v>
+        <v>0.2780654062632593</v>
       </c>
     </row>
     <row r="7">
@@ -9222,19 +9222,19 @@
         <v>69812</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>53194</v>
+        <v>55272</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>89850</v>
+        <v>88203</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1267882266233525</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09660712856217785</v>
+        <v>0.1003824943281957</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1631808847337506</v>
+        <v>0.1601887130664119</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>100</v>
@@ -9243,19 +9243,19 @@
         <v>63639</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>51643</v>
+        <v>52244</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>77723</v>
+        <v>76981</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1302974574324656</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1057360369057964</v>
+        <v>0.1069681963372093</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1591349399923233</v>
+        <v>0.1576146217379841</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>170</v>
@@ -9264,19 +9264,19 @@
         <v>133451</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>112791</v>
+        <v>112522</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>155432</v>
+        <v>154486</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1284377920130148</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1085538742514932</v>
+        <v>0.1082949817271019</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.149593450104834</v>
+        <v>0.148683072441433</v>
       </c>
     </row>
     <row r="8">
@@ -9368,19 +9368,19 @@
         <v>175440</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>153060</v>
+        <v>155252</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>196912</v>
+        <v>197303</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3630714370442982</v>
+        <v>0.3630714370442981</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3167550977435196</v>
+        <v>0.3212914228450157</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4075063786737339</v>
+        <v>0.4083150327062613</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>234</v>
@@ -9389,19 +9389,19 @@
         <v>166036</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>150098</v>
+        <v>149705</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>186659</v>
+        <v>183983</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3923867324220431</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3547218332132341</v>
+        <v>0.3537938070938752</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4411248080125045</v>
+        <v>0.4348011029579932</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>426</v>
@@ -9410,19 +9410,19 @@
         <v>341476</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>315292</v>
+        <v>315265</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>370416</v>
+        <v>372757</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.376757639185073</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3478679695634423</v>
+        <v>0.3478384939352564</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4086879555342009</v>
+        <v>0.4112708937399712</v>
       </c>
     </row>
     <row r="10">
@@ -9439,19 +9439,19 @@
         <v>118897</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>100097</v>
+        <v>99241</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>139251</v>
+        <v>140078</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2460546220883734</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2071489716053274</v>
+        <v>0.2053770340997137</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2881782020068305</v>
+        <v>0.289890212866706</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>129</v>
@@ -9460,19 +9460,19 @@
         <v>96848</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>81700</v>
+        <v>82295</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>112040</v>
+        <v>115018</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.2288775424492508</v>
+        <v>0.2288775424492507</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1930781241445124</v>
+        <v>0.1944858015339587</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2647816328395478</v>
+        <v>0.2718178500901898</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>235</v>
@@ -9481,19 +9481,19 @@
         <v>215744</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>191316</v>
+        <v>190143</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>241185</v>
+        <v>242209</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2380352935740276</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2110832494560072</v>
+        <v>0.2097888776448682</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2661041732232415</v>
+        <v>0.2672343851887539</v>
       </c>
     </row>
     <row r="11">
@@ -9510,19 +9510,19 @@
         <v>132266</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>112145</v>
+        <v>111125</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>153794</v>
+        <v>153902</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.273721611513904</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2320834184604694</v>
+        <v>0.2299711179579099</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3182740072931355</v>
+        <v>0.3184984516979559</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>137</v>
@@ -9531,19 +9531,19 @@
         <v>101239</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>86808</v>
+        <v>85988</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>118386</v>
+        <v>115976</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.239253995886616</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2051516853789769</v>
+        <v>0.2032136654483419</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2797771612778489</v>
+        <v>0.2740817858980419</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>259</v>
@@ -9552,19 +9552,19 @@
         <v>233504</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>208247</v>
+        <v>208182</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>261655</v>
+        <v>261733</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.2576299860089564</v>
+        <v>0.2576299860089563</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2297629084979931</v>
+        <v>0.2296917846597027</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.288689848662566</v>
+        <v>0.2887758675793065</v>
       </c>
     </row>
     <row r="12">
@@ -9581,19 +9581,19 @@
         <v>56609</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>43304</v>
+        <v>43094</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>71823</v>
+        <v>71116</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1171523293534244</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08961768404313379</v>
+        <v>0.08918157300726068</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1486363001853889</v>
+        <v>0.1471733799989857</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>90</v>
@@ -9602,19 +9602,19 @@
         <v>59021</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>47297</v>
+        <v>47489</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>71461</v>
+        <v>72853</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1394817292420901</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1117745641230641</v>
+        <v>0.1122288646084552</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1688803193449051</v>
+        <v>0.1721708835467561</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>151</v>
@@ -9623,19 +9623,19 @@
         <v>115630</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>99333</v>
+        <v>96592</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>137712</v>
+        <v>136128</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.127577081231943</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1095958106360622</v>
+        <v>0.1065723885084296</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1519401189622279</v>
+        <v>0.1501923300054277</v>
       </c>
     </row>
     <row r="13">
@@ -9727,19 +9727,19 @@
         <v>116539</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>98678</v>
+        <v>98111</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>137659</v>
+        <v>135541</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2471075333774335</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2092366179939411</v>
+        <v>0.2080323222004464</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2918909605529003</v>
+        <v>0.287399935807771</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>82</v>
@@ -9748,19 +9748,19 @@
         <v>52655</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>43299</v>
+        <v>43675</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>63190</v>
+        <v>62839</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2808290776255852</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2309313977956426</v>
+        <v>0.232935747622459</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3370208164063175</v>
+        <v>0.335148427824823</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>215</v>
@@ -9769,19 +9769,19 @@
         <v>169193</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>147434</v>
+        <v>148573</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>190603</v>
+        <v>191764</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.256700329092521</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2236862050164299</v>
+        <v>0.2254147492277423</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2891832928632948</v>
+        <v>0.2909444252272859</v>
       </c>
     </row>
     <row r="15">
@@ -9798,19 +9798,19 @@
         <v>119364</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>101177</v>
+        <v>99788</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>142000</v>
+        <v>140286</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2530981041581828</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2145343965446666</v>
+        <v>0.2115897186100465</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3010942465479584</v>
+        <v>0.2974616665470484</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>45</v>
@@ -9819,19 +9819,19 @@
         <v>34368</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>25682</v>
+        <v>26477</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>44575</v>
+        <v>44905</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1832996888678771</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.136974693637762</v>
+        <v>0.1412122957370654</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2377359875184652</v>
+        <v>0.239494596722429</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>154</v>
@@ -9840,19 +9840,19 @@
         <v>153732</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>131950</v>
+        <v>131751</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>174925</v>
+        <v>176385</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2332424909576266</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2001946039180162</v>
+        <v>0.1998929061674445</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2653965513808245</v>
+        <v>0.2676111893713777</v>
       </c>
     </row>
     <row r="16">
@@ -9869,19 +9869,19 @@
         <v>152832</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>131434</v>
+        <v>131333</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>173536</v>
+        <v>174419</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.324063115498527</v>
+        <v>0.3240631154985269</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2786918140504307</v>
+        <v>0.2784759096456216</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.367963615384036</v>
+        <v>0.3698363626790875</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>86</v>
@@ -9890,19 +9890,19 @@
         <v>55969</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>46158</v>
+        <v>46080</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>66210</v>
+        <v>66638</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2985067753464926</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2461799968398682</v>
+        <v>0.245766050781166</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3531234490118234</v>
+        <v>0.3554083139770313</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>238</v>
@@ -9911,19 +9911,19 @@
         <v>208801</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>187022</v>
+        <v>187220</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>233170</v>
+        <v>232124</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.316793082177998</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.28374966459961</v>
+        <v>0.2840505064503736</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3537658399664321</v>
+        <v>0.3521790769105813</v>
       </c>
     </row>
     <row r="17">
@@ -9940,19 +9940,19 @@
         <v>82877</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>67172</v>
+        <v>67224</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>102716</v>
+        <v>100306</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1757312469658568</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1424302031192416</v>
+        <v>0.1425419006670592</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2177970566283963</v>
+        <v>0.2126881226174816</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>76</v>
@@ -9961,19 +9961,19 @@
         <v>44505</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>35383</v>
+        <v>35650</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>55611</v>
+        <v>55062</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2373644581600451</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1887119217822277</v>
+        <v>0.190136513309385</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.296598090892341</v>
+        <v>0.2936691925732299</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>170</v>
@@ -9982,19 +9982,19 @@
         <v>127382</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>109326</v>
+        <v>108616</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>148497</v>
+        <v>148342</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1932640977718545</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1658691621619598</v>
+        <v>0.1647926960876277</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2253003279638122</v>
+        <v>0.2250640088433349</v>
       </c>
     </row>
     <row r="18">
@@ -10086,19 +10086,19 @@
         <v>270554</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>240635</v>
+        <v>240399</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>303995</v>
+        <v>303674</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2390388772821605</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2126044362471355</v>
+        <v>0.2123959393500991</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2685842753508113</v>
+        <v>0.26830054501067</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>327</v>
@@ -10107,19 +10107,19 @@
         <v>232329</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>209191</v>
+        <v>211423</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>255840</v>
+        <v>254506</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2697706283387894</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2429038113344536</v>
+        <v>0.2454955802044334</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2970698883314906</v>
+        <v>0.2955208327277323</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>596</v>
@@ -10128,19 +10128,19 @@
         <v>502884</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>467304</v>
+        <v>463980</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>542958</v>
+        <v>541481</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.2523182627100713</v>
+        <v>0.2523182627100714</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2344665344880503</v>
+        <v>0.2327986468378687</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2724250462997923</v>
+        <v>0.2716838495187096</v>
       </c>
     </row>
     <row r="20">
@@ -10157,19 +10157,19 @@
         <v>239962</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>210119</v>
+        <v>211648</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>268038</v>
+        <v>272497</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2120100129001275</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1856429543547142</v>
+        <v>0.1869943259522115</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2368158116309657</v>
+        <v>0.240755416916299</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>257</v>
@@ -10178,19 +10178,19 @@
         <v>200328</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>179560</v>
+        <v>180984</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>225849</v>
+        <v>221454</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.23261201990823</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2084966562132187</v>
+        <v>0.2101510370927053</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2622462616110659</v>
+        <v>0.2571431019976229</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>470</v>
@@ -10199,19 +10199,19 @@
         <v>440290</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>403196</v>
+        <v>404940</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>481749</v>
+        <v>480768</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2209122713866351</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2023007664563397</v>
+        <v>0.2031757712407114</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2417141343001023</v>
+        <v>0.2412217235445384</v>
       </c>
     </row>
     <row r="21">
@@ -10228,19 +10228,19 @@
         <v>357876</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>326244</v>
+        <v>323009</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>392085</v>
+        <v>393851</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3161886560053039</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2882414853035466</v>
+        <v>0.2853834831216187</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3464128994058047</v>
+        <v>0.3479731906412208</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>367</v>
@@ -10249,19 +10249,19 @@
         <v>259578</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>235271</v>
+        <v>238486</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>280901</v>
+        <v>284850</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.3014100164770253</v>
+        <v>0.3014100164770252</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2731862873425762</v>
+        <v>0.2769197137798471</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3261702785860738</v>
+        <v>0.3307548985475053</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>701</v>
@@ -10270,19 +10270,19 @@
         <v>617454</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>574577</v>
+        <v>577730</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>659806</v>
+        <v>660731</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.3098027117083277</v>
+        <v>0.3098027117083278</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2882896750571442</v>
+        <v>0.2898717505481901</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3310529852131787</v>
+        <v>0.3315170053797518</v>
       </c>
     </row>
     <row r="22">
@@ -10299,19 +10299,19 @@
         <v>263451</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>236201</v>
+        <v>233219</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>293235</v>
+        <v>292723</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.232762453812408</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2086874168163589</v>
+        <v>0.2060528440726375</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.259077175901861</v>
+        <v>0.2586248037942946</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>279</v>
@@ -10320,19 +10320,19 @@
         <v>168976</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>148933</v>
+        <v>150470</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>188393</v>
+        <v>186861</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1962073352759554</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1729339500713799</v>
+        <v>0.1747191219624232</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.218753611553158</v>
+        <v>0.216975082646968</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>581</v>
@@ -10341,19 +10341,19 @@
         <v>432426</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>400032</v>
+        <v>400209</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>469540</v>
+        <v>467141</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.2169667541949657</v>
+        <v>0.2169667541949658</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2007130545092859</v>
+        <v>0.2008017525784299</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2355882776758272</v>
+        <v>0.2343842913384992</v>
       </c>
     </row>
     <row r="23">
@@ -10445,19 +10445,19 @@
         <v>106012</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>86900</v>
+        <v>89673</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>126694</v>
+        <v>127319</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1866534832316787</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1530020835499106</v>
+        <v>0.1578844452562958</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2230670783423933</v>
+        <v>0.2241679573140156</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>247</v>
@@ -10466,19 +10466,19 @@
         <v>170870</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>152087</v>
+        <v>150482</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>191101</v>
+        <v>188658</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2056571026502942</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1830495932453017</v>
+        <v>0.1811181979606832</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2300060455975234</v>
+        <v>0.2270667843834839</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>354</v>
@@ -10487,19 +10487,19 @@
         <v>276883</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>249176</v>
+        <v>249605</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>303300</v>
+        <v>307507</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.1979410181986578</v>
+        <v>0.1979410181986577</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1781337908965009</v>
+        <v>0.1784407788398874</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2168266917915738</v>
+        <v>0.2198343027728035</v>
       </c>
     </row>
     <row r="25">
@@ -10516,19 +10516,19 @@
         <v>118353</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>97804</v>
+        <v>96169</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>142211</v>
+        <v>145011</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.2083804081018604</v>
+        <v>0.2083804081018603</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1722004207460167</v>
+        <v>0.1693215181839696</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2503879089424222</v>
+        <v>0.2553176511439062</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>226</v>
@@ -10537,19 +10537,19 @@
         <v>161364</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>142028</v>
+        <v>143293</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>181004</v>
+        <v>181951</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1942150373908394</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1709425355193274</v>
+        <v>0.1724659080325698</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2178541834942861</v>
+        <v>0.2189938152918299</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>322</v>
@@ -10558,19 +10558,19 @@
         <v>279716</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>251110</v>
+        <v>250380</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>312630</v>
+        <v>308749</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1999666362987773</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1795162163801613</v>
+        <v>0.1789942431798599</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2234962464599592</v>
+        <v>0.2207219903612236</v>
       </c>
     </row>
     <row r="26">
@@ -10587,19 +10587,19 @@
         <v>174935</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>152629</v>
+        <v>152460</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>200192</v>
+        <v>202905</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.3080038322290358</v>
+        <v>0.3080038322290357</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2687293459554977</v>
+        <v>0.2684323404830513</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3524726705489679</v>
+        <v>0.3572489697169022</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>393</v>
@@ -10608,19 +10608,19 @@
         <v>259241</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>237250</v>
+        <v>237909</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>279317</v>
+        <v>280426</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3120193674273615</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2855508483023545</v>
+        <v>0.2863443854761718</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3361820070098721</v>
+        <v>0.3375169289125812</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>563</v>
@@ -10629,19 +10629,19 @@
         <v>434176</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>398674</v>
+        <v>400706</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>466237</v>
+        <v>466492</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.3103889301918921</v>
+        <v>0.310388930191892</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2850085695711057</v>
+        <v>0.2864610615775205</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.333308816097582</v>
+        <v>0.333490822609454</v>
       </c>
     </row>
     <row r="27">
@@ -10658,19 +10658,19 @@
         <v>168664</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>146402</v>
+        <v>145320</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>193070</v>
+        <v>193592</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2969622764374252</v>
+        <v>0.2969622764374251</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2577670266016263</v>
+        <v>0.2558616972033598</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.339933036307173</v>
+        <v>0.3408530195027763</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>424</v>
@@ -10679,19 +10679,19 @@
         <v>239375</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>219108</v>
+        <v>218517</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>261026</v>
+        <v>261193</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2881084925315049</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2637154978526745</v>
+        <v>0.2630041030415454</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3141675083320047</v>
+        <v>0.314368434984708</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>598</v>
@@ -10700,19 +10700,19 @@
         <v>408039</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>380295</v>
+        <v>378644</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>442472</v>
+        <v>442098</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.291703415310673</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2718698142107187</v>
+        <v>0.2706891588283235</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3163194510419403</v>
+        <v>0.3160519991682687</v>
       </c>
     </row>
     <row r="28">
@@ -10804,19 +10804,19 @@
         <v>70178</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>51179</v>
+        <v>50148</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>93773</v>
+        <v>93421</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2958261993186007</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2157369757032273</v>
+        <v>0.211393243689867</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3952847287895321</v>
+        <v>0.3938030788766981</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>362</v>
@@ -10825,19 +10825,19 @@
         <v>275215</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>249899</v>
+        <v>249369</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>302214</v>
+        <v>301930</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.3259756022657618</v>
+        <v>0.3259756022657619</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2959907027265028</v>
+        <v>0.2953620087456664</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3579548638183844</v>
+        <v>0.3576183806529478</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>397</v>
@@ -10846,19 +10846,19 @@
         <v>345393</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>312030</v>
+        <v>313736</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>379389</v>
+        <v>384215</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3193623639929223</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2885133853418084</v>
+        <v>0.290090977008724</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3507961084026731</v>
+        <v>0.3552586365249274</v>
       </c>
     </row>
     <row r="30">
@@ -10875,19 +10875,19 @@
         <v>57152</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>36000</v>
+        <v>37824</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>81246</v>
+        <v>81861</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2409140198033819</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1517518348332446</v>
+        <v>0.159440312902132</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3424797286564207</v>
+        <v>0.3450721768397123</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>218</v>
@@ -10896,19 +10896,19 @@
         <v>179778</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>157085</v>
+        <v>157545</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>203471</v>
+        <v>205668</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.2129358926658383</v>
+        <v>0.2129358926658382</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1860580570274712</v>
+        <v>0.1866029988185353</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2409991590977414</v>
+        <v>0.2436017072733333</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>238</v>
@@ -10917,19 +10917,19 @@
         <v>236929</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>207465</v>
+        <v>208136</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>275894</v>
+        <v>271955</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2190728639853912</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1918293888237213</v>
+        <v>0.1924500438863144</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2551007175944703</v>
+        <v>0.2514585305493319</v>
       </c>
     </row>
     <row r="31">
@@ -10946,19 +10946,19 @@
         <v>74579</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>53132</v>
+        <v>55240</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>96163</v>
+        <v>99503</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.314376084095651</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2239691606783233</v>
+        <v>0.2328568884588315</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.4053606856954101</v>
+        <v>0.4194390929473203</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>332</v>
@@ -10967,19 +10967,19 @@
         <v>245354</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>220607</v>
+        <v>221270</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>270128</v>
+        <v>272931</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.2906065082680041</v>
+        <v>0.2906065082680042</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2612962883019992</v>
+        <v>0.2620812183678043</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3199499953471899</v>
+        <v>0.3232699188062255</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>371</v>
@@ -10988,19 +10988,19 @@
         <v>319932</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>288006</v>
+        <v>286584</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>357516</v>
+        <v>353442</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2958203385009958</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2662999799084579</v>
+        <v>0.2649857223094761</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.330571465285585</v>
+        <v>0.32680470552492</v>
       </c>
     </row>
     <row r="32">
@@ -11017,19 +11017,19 @@
         <v>35319</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>19044</v>
+        <v>21244</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>57718</v>
+        <v>59431</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1488836967823664</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.08027767473851016</v>
+        <v>0.08955118954215133</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2432998538533334</v>
+        <v>0.2505208410202648</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>247</v>
@@ -11038,19 +11038,19 @@
         <v>143935</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>125575</v>
+        <v>124591</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>163936</v>
+        <v>163889</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1704819968003958</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1487356739639723</v>
+        <v>0.1475707926368945</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1941721696350109</v>
+        <v>0.1941163376637381</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>265</v>
@@ -11059,19 +11059,19 @@
         <v>179254</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>155371</v>
+        <v>156478</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>210702</v>
+        <v>210792</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1657444335206907</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1436613046986672</v>
+        <v>0.1446847462526009</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1948221775209641</v>
+        <v>0.1949054686427596</v>
       </c>
     </row>
     <row r="33">
@@ -11163,19 +11163,19 @@
         <v>956790</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>904422</v>
+        <v>903669</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>1015314</v>
+        <v>1012964</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.2779365368010911</v>
+        <v>0.277936536801091</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2627244118003016</v>
+        <v>0.2625054046011219</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2949371575196374</v>
+        <v>0.2942545830305922</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1522</v>
@@ -11184,19 +11184,19 @@
         <v>1080834</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1030963</v>
+        <v>1030653</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>1127858</v>
+        <v>1124852</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2973087783189572</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2835905314391869</v>
+        <v>0.2835053482762009</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3102438791956412</v>
+        <v>0.3094168599320405</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>2502</v>
@@ -11205,19 +11205,19 @@
         <v>2037624</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1959106</v>
+        <v>1967389</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>2117108</v>
+        <v>2117011</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.2878866662741689</v>
+        <v>0.2878866662741688</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2767932690311404</v>
+        <v>0.2779634805120328</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2991166174978007</v>
+        <v>0.2991028745679228</v>
       </c>
     </row>
     <row r="35">
@@ -11234,19 +11234,19 @@
         <v>784699</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>725538</v>
+        <v>729050</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>840724</v>
+        <v>844012</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2279461446459015</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2107603923691133</v>
+        <v>0.2117807661417645</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2442206196092681</v>
+        <v>0.2451759665645693</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>1020</v>
@@ -11255,19 +11255,19 @@
         <v>784171</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>743845</v>
+        <v>743103</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>833645</v>
+        <v>833471</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2157045674380218</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2046119323063596</v>
+        <v>0.2044079207212053</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2293135162980433</v>
+        <v>0.229265619849578</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>1681</v>
@@ -11276,19 +11276,19 @@
         <v>1568870</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>1492761</v>
+        <v>1496187</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>1638981</v>
+        <v>1642136</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2216585254222434</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2109054064356555</v>
+        <v>0.2113894964663074</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2315642268321848</v>
+        <v>0.232009884252134</v>
       </c>
     </row>
     <row r="36">
@@ -11305,19 +11305,19 @@
         <v>1024255</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>970658</v>
+        <v>968154</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1085085</v>
+        <v>1091146</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2975344388192077</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2819650952761298</v>
+        <v>0.2812378089880845</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3152047775426038</v>
+        <v>0.3169653345560444</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1486</v>
@@ -11326,19 +11326,19 @@
         <v>1050938</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>1005353</v>
+        <v>1002474</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>1098236</v>
+        <v>1097341</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2890850331914474</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2765458540176466</v>
+        <v>0.2757540210639148</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3020956193715989</v>
+        <v>0.3018492272695509</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>2426</v>
@@ -11347,19 +11347,19 @@
         <v>2075193</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1996488</v>
+        <v>1993728</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>2154932</v>
+        <v>2148113</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2931945858450832</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2820747194660358</v>
+        <v>0.2816847919897051</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3044605173831214</v>
+        <v>0.3034971389873549</v>
       </c>
     </row>
     <row r="37">
@@ -11376,19 +11376,19 @@
         <v>676732</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>626136</v>
+        <v>629211</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>728682</v>
+        <v>726311</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1965828797337998</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1818853954178596</v>
+        <v>0.1827784918008575</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2116736807655579</v>
+        <v>0.2109849394256815</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>1216</v>
@@ -11397,19 +11397,19 @@
         <v>719450</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>677329</v>
+        <v>678014</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>761402</v>
+        <v>758618</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1979016210515737</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1863152354105717</v>
+        <v>0.1865035960210781</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2094413485302945</v>
+        <v>0.2086757869912312</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1935</v>
@@ -11418,19 +11418,19 @@
         <v>1396182</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1335059</v>
+        <v>1328201</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1464525</v>
+        <v>1464000</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.1972602224585044</v>
+        <v>0.1972602224585045</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1886243762331132</v>
+        <v>0.1876555334723679</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2069161560116249</v>
+        <v>0.2068419591692448</v>
       </c>
     </row>
     <row r="38">
